--- a/server/scripts/phd.xlsx
+++ b/server/scripts/phd.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="751">
   <si>
     <t>name</t>
   </si>
@@ -2307,6 +2307,30 @@
   </si>
   <si>
     <t>Sahoo@hyderabad.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>eee.temp@hyderabad.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20220607@hyderabad.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>sanchay</t>
+  </si>
+  <si>
+    <t>sanchay2357@gmail.com</t>
+  </si>
+  <si>
+    <t>mech.temp@hyderabad.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>mech temp</t>
+  </si>
+  <si>
+    <t>zas</t>
+  </si>
+  <si>
+    <t>eee</t>
   </si>
 </sst>
 </file>
@@ -2361,11 +2385,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2392,10 +2417,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U157" totalsRowShown="0">
-  <autoFilter ref="A1:U157"/>
-  <sortState ref="A2:U157">
-    <sortCondition ref="T1:T157"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U159" totalsRowShown="0">
+  <autoFilter ref="A1:U159"/>
+  <sortState ref="A2:U159">
+    <sortCondition ref="T1:T159"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" name="name"/>
@@ -2420,7 +2445,7 @@
     <tableColumn id="20" name="Supervisor Name"/>
     <tableColumn id="21" name="supervisor email2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2683,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U157"/>
+  <dimension ref="A1:U159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L73" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView tabSelected="1" topLeftCell="C145" workbookViewId="0">
+      <selection activeCell="N158" sqref="N158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -10182,7 +10207,7 @@
       <c r="T154" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="U154" s="1" t="s">
+      <c r="U154" s="4" t="s">
         <v>667</v>
       </c>
     </row>
@@ -10327,8 +10352,88 @@
       <c r="T157" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="U157" s="1" t="s">
+      <c r="U157" s="4" t="s">
         <v>685</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" ht="15" customHeight="1">
+      <c r="A158" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D158" t="s">
+        <v>480</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G158" s="1">
+        <v>41320210415</v>
+      </c>
+      <c r="H158" s="1"/>
+      <c r="I158" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" s="3">
+        <v>44852</v>
+      </c>
+      <c r="M158" s="1"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="3"/>
+      <c r="S158" s="3"/>
+      <c r="T158" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="U158" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" ht="15" customHeight="1">
+      <c r="A159" t="s">
+        <v>748</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E159" t="s">
+        <v>482</v>
+      </c>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" s="3">
+        <v>44852</v>
+      </c>
+      <c r="M159" t="s">
+        <v>715</v>
+      </c>
+      <c r="N159" s="3">
+        <v>44932</v>
+      </c>
+      <c r="T159" t="s">
+        <v>749</v>
+      </c>
+      <c r="U159" s="4" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -10648,12 +10753,20 @@
     <hyperlink ref="J62" r:id="rId310"/>
     <hyperlink ref="J40" r:id="rId311"/>
     <hyperlink ref="J24" r:id="rId312"/>
+    <hyperlink ref="U157" r:id="rId313"/>
+    <hyperlink ref="U154" r:id="rId314"/>
+    <hyperlink ref="B159" r:id="rId315"/>
+    <hyperlink ref="I158" r:id="rId316"/>
+    <hyperlink ref="J158" r:id="rId317"/>
+    <hyperlink ref="U158" r:id="rId318"/>
+    <hyperlink ref="B158" r:id="rId319"/>
+    <hyperlink ref="U159" r:id="rId320"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId313"/>
+  <legacyDrawing r:id="rId321"/>
   <tableParts count="1">
-    <tablePart r:id="rId314"/>
+    <tablePart r:id="rId322"/>
   </tableParts>
 </worksheet>
 </file>
--- a/server/scripts/phd.xlsx
+++ b/server/scripts/phd.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="743">
   <si>
     <t>name</t>
   </si>
@@ -2307,30 +2307,6 @@
   </si>
   <si>
     <t>Sahoo@hyderabad.bits-pilani.ac.in</t>
-  </si>
-  <si>
-    <t>eee.temp@hyderabad.bits-pilani.ac.in</t>
-  </si>
-  <si>
-    <t>f20220607@hyderabad.bits-pilani.ac.in</t>
-  </si>
-  <si>
-    <t>sanchay</t>
-  </si>
-  <si>
-    <t>sanchay2357@gmail.com</t>
-  </si>
-  <si>
-    <t>mech.temp@hyderabad.bits-pilani.ac.in</t>
-  </si>
-  <si>
-    <t>mech temp</t>
-  </si>
-  <si>
-    <t>zas</t>
-  </si>
-  <si>
-    <t>eee</t>
   </si>
 </sst>
 </file>
@@ -2417,8 +2393,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U159" totalsRowShown="0">
-  <autoFilter ref="A1:U159"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U157" totalsRowShown="0">
+  <autoFilter ref="A1:U157"/>
   <sortState ref="A2:U159">
     <sortCondition ref="T1:T159"/>
   </sortState>
@@ -2708,10 +2684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U159"/>
+  <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C145" workbookViewId="0">
-      <selection activeCell="N158" sqref="N158"/>
+    <sheetView tabSelected="1" topLeftCell="L145" workbookViewId="0">
+      <selection activeCell="Q164" sqref="Q164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -10354,86 +10330,6 @@
       </c>
       <c r="U157" s="4" t="s">
         <v>685</v>
-      </c>
-    </row>
-    <row r="158" spans="1:21" ht="15" customHeight="1">
-      <c r="A158" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D158" t="s">
-        <v>480</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G158" s="1">
-        <v>41320210415</v>
-      </c>
-      <c r="H158" s="1"/>
-      <c r="I158" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" s="3">
-        <v>44852</v>
-      </c>
-      <c r="M158" s="1"/>
-      <c r="N158" s="3"/>
-      <c r="O158" s="3"/>
-      <c r="P158" s="3"/>
-      <c r="Q158" s="3"/>
-      <c r="R158" s="3"/>
-      <c r="S158" s="3"/>
-      <c r="T158" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="U158" s="4" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21" ht="15" customHeight="1">
-      <c r="A159" t="s">
-        <v>748</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="E159" t="s">
-        <v>482</v>
-      </c>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" s="3">
-        <v>44852</v>
-      </c>
-      <c r="M159" t="s">
-        <v>715</v>
-      </c>
-      <c r="N159" s="3">
-        <v>44932</v>
-      </c>
-      <c r="T159" t="s">
-        <v>749</v>
-      </c>
-      <c r="U159" s="4" t="s">
-        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -10755,18 +10651,12 @@
     <hyperlink ref="J24" r:id="rId312"/>
     <hyperlink ref="U157" r:id="rId313"/>
     <hyperlink ref="U154" r:id="rId314"/>
-    <hyperlink ref="B159" r:id="rId315"/>
-    <hyperlink ref="I158" r:id="rId316"/>
-    <hyperlink ref="J158" r:id="rId317"/>
-    <hyperlink ref="U158" r:id="rId318"/>
-    <hyperlink ref="B158" r:id="rId319"/>
-    <hyperlink ref="U159" r:id="rId320"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId321"/>
+  <legacyDrawing r:id="rId315"/>
   <tableParts count="1">
-    <tablePart r:id="rId322"/>
+    <tablePart r:id="rId316"/>
   </tableParts>
 </worksheet>
 </file>
--- a/server/scripts/phd.xlsx
+++ b/server/scripts/phd.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="747">
   <si>
     <t>name</t>
   </si>
@@ -2307,6 +2307,18 @@
   </si>
   <si>
     <t>Sahoo@hyderabad.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>eee temp</t>
+  </si>
+  <si>
+    <t>eee.temp@hyderabad.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>sanchay</t>
+  </si>
+  <si>
+    <t>f20220607@hyderabad.bits-pilani.ac.in</t>
   </si>
 </sst>
 </file>
@@ -2393,8 +2405,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U157" totalsRowShown="0">
-  <autoFilter ref="A1:U157"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U158" totalsRowShown="0">
+  <autoFilter ref="A1:U158"/>
   <sortState ref="A2:U159">
     <sortCondition ref="T1:T159"/>
   </sortState>
@@ -2684,10 +2696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U157"/>
+  <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L145" workbookViewId="0">
-      <selection activeCell="Q164" sqref="Q164"/>
+    <sheetView tabSelected="1" topLeftCell="L148" workbookViewId="0">
+      <selection activeCell="U158" sqref="U158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -10330,6 +10342,37 @@
       </c>
       <c r="U157" s="4" t="s">
         <v>685</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" ht="15" customHeight="1">
+      <c r="A158" t="s">
+        <v>743</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="D158" t="s">
+        <v>480</v>
+      </c>
+      <c r="E158" t="s">
+        <v>482</v>
+      </c>
+      <c r="F158">
+        <v>7990573763</v>
+      </c>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" s="3">
+        <v>44852</v>
+      </c>
+      <c r="T158" t="s">
+        <v>745</v>
+      </c>
+      <c r="U158" s="2" t="s">
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -10651,12 +10694,14 @@
     <hyperlink ref="J24" r:id="rId312"/>
     <hyperlink ref="U157" r:id="rId313"/>
     <hyperlink ref="U154" r:id="rId314"/>
+    <hyperlink ref="B158" r:id="rId315"/>
+    <hyperlink ref="U158" r:id="rId316"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId315"/>
+  <legacyDrawing r:id="rId317"/>
   <tableParts count="1">
-    <tablePart r:id="rId316"/>
+    <tablePart r:id="rId318"/>
   </tableParts>
 </worksheet>
 </file>
--- a/server/scripts/phd.xlsx
+++ b/server/scripts/phd.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanch\OneDrive\Desktop\Erp\server\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BITS EEE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9BC965-ACB7-444C-99A4-04FC9F937BE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>BITS EEE</author>
   </authors>
   <commentList>
-    <comment ref="O39" authorId="0" shapeId="0">
+    <comment ref="O39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K90" authorId="0" shapeId="0">
+    <comment ref="K90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2324,7 +2325,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -2405,33 +2406,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U158" totalsRowShown="0">
-  <autoFilter ref="A1:U158"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:U158" totalsRowShown="0">
+  <autoFilter ref="A1:U158" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:U159">
     <sortCondition ref="T1:T159"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="name"/>
-    <tableColumn id="2" name="email"/>
-    <tableColumn id="3" name="bits id"/>
-    <tableColumn id="4" name="department(eee/mech)"/>
-    <tableColumn id="5" name="phd type(full time/ part time)"/>
-    <tableColumn id="6" name="phone number"/>
-    <tableColumn id="7" name="erp id"/>
-    <tableColumn id="8" name="personal email"/>
-    <tableColumn id="9" name="notional supervisor email" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="10" name="supervisor email" dataDxfId="0" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" name="pas/fail the qe(true  or false)"/>
-    <tableColumn id="12" name="qualification date if passed"/>
-    <tableColumn id="13" name="Proposal Seminar"/>
-    <tableColumn id="14" name="Date of Proposal"/>
-    <tableColumn id="15" name="Presubmission Seminar"/>
-    <tableColumn id="16" name="Draft Notice"/>
-    <tableColumn id="17" name="Date of Presubmission"/>
-    <tableColumn id="18" name="Final Thesis"/>
-    <tableColumn id="19" name="Viva Voce"/>
-    <tableColumn id="20" name="Supervisor Name"/>
-    <tableColumn id="21" name="supervisor email2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="email"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="bits id"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="department(eee/mech)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="phd type(full time/ part time)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="phone number"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="erp id"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="personal email"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="notional supervisor email" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="supervisor email" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="pas/fail the qe(true  or false)"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="qualification date if passed"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Proposal Seminar"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Date of Proposal"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Presubmission Seminar"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Draft Notice"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Date of Presubmission"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Final Thesis"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Viva Voce"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Supervisor Name"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="supervisor email2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2695,35 +2696,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L148" workbookViewId="0">
-      <selection activeCell="U158" sqref="U158"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="12" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="17.109375" customWidth="1"/>
+    <col min="18" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1">
@@ -2820,7 +2821,12 @@
       <c r="J2" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45931</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="T2" s="1" t="s">
         <v>704</v>
@@ -5052,7 +5058,12 @@
       <c r="J48" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="L48" s="1"/>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3">
+        <v>45931</v>
+      </c>
       <c r="M48" s="1"/>
       <c r="T48" s="1" t="s">
         <v>641</v>
@@ -5521,7 +5532,12 @@
       <c r="J58" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="L58" s="1"/>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" s="3">
+        <v>45931</v>
+      </c>
       <c r="M58" s="1"/>
       <c r="T58" s="1" t="s">
         <v>642</v>
@@ -5665,7 +5681,12 @@
       <c r="J61" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="L61" s="1"/>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" s="3">
+        <v>45931</v>
+      </c>
       <c r="M61" s="1"/>
       <c r="T61" s="1" t="s">
         <v>645</v>
@@ -7121,7 +7142,12 @@
       <c r="J91" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="L91" s="1"/>
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" s="3">
+        <v>45931</v>
+      </c>
       <c r="M91" s="1"/>
       <c r="T91" s="1" t="s">
         <v>643</v>
@@ -7159,7 +7185,12 @@
       <c r="J92" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="L92" s="1"/>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" s="3">
+        <v>45931</v>
+      </c>
       <c r="M92" s="1"/>
       <c r="T92" s="1" t="s">
         <v>643</v>
@@ -10044,7 +10075,12 @@
       <c r="J151" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="L151" s="1"/>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" s="3">
+        <v>45931</v>
+      </c>
       <c r="M151" s="1"/>
       <c r="T151" s="1" t="s">
         <v>697</v>
@@ -10380,322 +10416,322 @@
     <sortCondition ref="C2:C157"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I49" r:id="rId1"/>
-    <hyperlink ref="I58" r:id="rId2"/>
-    <hyperlink ref="I66" r:id="rId3"/>
-    <hyperlink ref="I114" r:id="rId4"/>
-    <hyperlink ref="I115" r:id="rId5"/>
-    <hyperlink ref="I14" r:id="rId6"/>
-    <hyperlink ref="I88" r:id="rId7"/>
-    <hyperlink ref="I87" r:id="rId8"/>
-    <hyperlink ref="I44" r:id="rId9"/>
-    <hyperlink ref="I119" r:id="rId10"/>
-    <hyperlink ref="I106" r:id="rId11"/>
-    <hyperlink ref="I136" r:id="rId12"/>
-    <hyperlink ref="I118" r:id="rId13"/>
-    <hyperlink ref="I147" r:id="rId14"/>
-    <hyperlink ref="I132" r:id="rId15"/>
-    <hyperlink ref="I33" r:id="rId16"/>
-    <hyperlink ref="I102" r:id="rId17"/>
-    <hyperlink ref="I41" r:id="rId18"/>
-    <hyperlink ref="I3" r:id="rId19"/>
-    <hyperlink ref="I156" r:id="rId20"/>
-    <hyperlink ref="I96" r:id="rId21"/>
-    <hyperlink ref="I92" r:id="rId22"/>
-    <hyperlink ref="I7" r:id="rId23"/>
-    <hyperlink ref="I67" r:id="rId24"/>
-    <hyperlink ref="I61" r:id="rId25"/>
-    <hyperlink ref="I97" r:id="rId26"/>
-    <hyperlink ref="I54" r:id="rId27"/>
-    <hyperlink ref="I148" r:id="rId28"/>
-    <hyperlink ref="I64" r:id="rId29"/>
-    <hyperlink ref="I77" r:id="rId30"/>
-    <hyperlink ref="I76" r:id="rId31"/>
-    <hyperlink ref="I43" r:id="rId32"/>
-    <hyperlink ref="I4" r:id="rId33"/>
-    <hyperlink ref="I85" r:id="rId34"/>
-    <hyperlink ref="I74" r:id="rId35"/>
-    <hyperlink ref="I27" r:id="rId36"/>
-    <hyperlink ref="I117" r:id="rId37"/>
-    <hyperlink ref="I57" r:id="rId38"/>
-    <hyperlink ref="I73" r:id="rId39"/>
-    <hyperlink ref="I55" r:id="rId40"/>
-    <hyperlink ref="I143" r:id="rId41"/>
-    <hyperlink ref="I91" r:id="rId42"/>
-    <hyperlink ref="I141" r:id="rId43"/>
-    <hyperlink ref="I94" r:id="rId44"/>
-    <hyperlink ref="I18" r:id="rId45"/>
-    <hyperlink ref="I152" r:id="rId46"/>
-    <hyperlink ref="I2" r:id="rId47"/>
-    <hyperlink ref="I121" r:id="rId48"/>
-    <hyperlink ref="I47" r:id="rId49"/>
-    <hyperlink ref="I6" r:id="rId50"/>
-    <hyperlink ref="I17" r:id="rId51"/>
-    <hyperlink ref="I139" r:id="rId52"/>
-    <hyperlink ref="I130" r:id="rId53"/>
-    <hyperlink ref="I149" r:id="rId54"/>
-    <hyperlink ref="I35" r:id="rId55"/>
-    <hyperlink ref="I26" r:id="rId56"/>
-    <hyperlink ref="I100" r:id="rId57"/>
-    <hyperlink ref="I80" r:id="rId58"/>
-    <hyperlink ref="I142" r:id="rId59"/>
-    <hyperlink ref="I53" r:id="rId60"/>
-    <hyperlink ref="I122" r:id="rId61"/>
-    <hyperlink ref="I60" r:id="rId62"/>
-    <hyperlink ref="I111" r:id="rId63"/>
-    <hyperlink ref="I113" r:id="rId64"/>
-    <hyperlink ref="I99" r:id="rId65"/>
-    <hyperlink ref="I138" r:id="rId66"/>
-    <hyperlink ref="I29" r:id="rId67"/>
-    <hyperlink ref="I83" r:id="rId68"/>
-    <hyperlink ref="I134" r:id="rId69"/>
-    <hyperlink ref="I129" r:id="rId70"/>
-    <hyperlink ref="I153" r:id="rId71"/>
-    <hyperlink ref="I146" r:id="rId72"/>
-    <hyperlink ref="I82" r:id="rId73"/>
-    <hyperlink ref="I25" r:id="rId74"/>
-    <hyperlink ref="I81" r:id="rId75"/>
-    <hyperlink ref="I101" r:id="rId76"/>
-    <hyperlink ref="I21" r:id="rId77"/>
-    <hyperlink ref="I68" r:id="rId78"/>
-    <hyperlink ref="I11" r:id="rId79"/>
-    <hyperlink ref="I93" r:id="rId80"/>
-    <hyperlink ref="I50" r:id="rId81"/>
-    <hyperlink ref="I48" r:id="rId82"/>
-    <hyperlink ref="I15" r:id="rId83"/>
-    <hyperlink ref="I10" r:id="rId84"/>
-    <hyperlink ref="I151" r:id="rId85"/>
-    <hyperlink ref="I110" r:id="rId86"/>
-    <hyperlink ref="I38" r:id="rId87"/>
-    <hyperlink ref="I45" r:id="rId88"/>
-    <hyperlink ref="I37" r:id="rId89"/>
-    <hyperlink ref="I123" r:id="rId90"/>
-    <hyperlink ref="I103" r:id="rId91"/>
-    <hyperlink ref="I63" r:id="rId92"/>
-    <hyperlink ref="I133" r:id="rId93"/>
-    <hyperlink ref="I157" r:id="rId94"/>
-    <hyperlink ref="I30" r:id="rId95"/>
-    <hyperlink ref="I128" r:id="rId96"/>
-    <hyperlink ref="I124" r:id="rId97"/>
-    <hyperlink ref="I144" r:id="rId98"/>
-    <hyperlink ref="I12" r:id="rId99"/>
-    <hyperlink ref="I116" r:id="rId100"/>
-    <hyperlink ref="I20" r:id="rId101"/>
-    <hyperlink ref="I9" r:id="rId102"/>
-    <hyperlink ref="I140" r:id="rId103"/>
-    <hyperlink ref="I145" r:id="rId104"/>
-    <hyperlink ref="I72" r:id="rId105"/>
-    <hyperlink ref="I19" r:id="rId106"/>
-    <hyperlink ref="I8" r:id="rId107"/>
-    <hyperlink ref="I46" r:id="rId108"/>
-    <hyperlink ref="I125" r:id="rId109"/>
-    <hyperlink ref="I5" r:id="rId110"/>
-    <hyperlink ref="I155" r:id="rId111"/>
-    <hyperlink ref="I86" r:id="rId112"/>
-    <hyperlink ref="I36" r:id="rId113"/>
-    <hyperlink ref="I154" r:id="rId114"/>
-    <hyperlink ref="I42" r:id="rId115"/>
-    <hyperlink ref="I28" r:id="rId116"/>
-    <hyperlink ref="I70" r:id="rId117"/>
-    <hyperlink ref="I56" r:id="rId118"/>
-    <hyperlink ref="I13" r:id="rId119"/>
-    <hyperlink ref="I131" r:id="rId120"/>
-    <hyperlink ref="I23" r:id="rId121"/>
-    <hyperlink ref="I108" r:id="rId122"/>
-    <hyperlink ref="I59" r:id="rId123"/>
-    <hyperlink ref="I89" r:id="rId124"/>
-    <hyperlink ref="I150" r:id="rId125"/>
-    <hyperlink ref="I22" r:id="rId126"/>
-    <hyperlink ref="I75" r:id="rId127"/>
-    <hyperlink ref="I137" r:id="rId128"/>
-    <hyperlink ref="I52" r:id="rId129"/>
-    <hyperlink ref="I135" r:id="rId130"/>
-    <hyperlink ref="I51" r:id="rId131"/>
-    <hyperlink ref="I34" r:id="rId132"/>
-    <hyperlink ref="I39" r:id="rId133"/>
-    <hyperlink ref="I98" r:id="rId134"/>
-    <hyperlink ref="I127" r:id="rId135"/>
-    <hyperlink ref="I16" r:id="rId136"/>
-    <hyperlink ref="I69" r:id="rId137"/>
-    <hyperlink ref="I90" r:id="rId138"/>
-    <hyperlink ref="I95" r:id="rId139"/>
-    <hyperlink ref="I109" r:id="rId140"/>
-    <hyperlink ref="I65" r:id="rId141"/>
-    <hyperlink ref="I79" r:id="rId142"/>
-    <hyperlink ref="I71" r:id="rId143"/>
-    <hyperlink ref="I120" r:id="rId144"/>
-    <hyperlink ref="I126" r:id="rId145"/>
-    <hyperlink ref="I78" r:id="rId146"/>
-    <hyperlink ref="I112" r:id="rId147"/>
-    <hyperlink ref="I107" r:id="rId148"/>
-    <hyperlink ref="I32" r:id="rId149"/>
-    <hyperlink ref="I105" r:id="rId150"/>
-    <hyperlink ref="I31" r:id="rId151"/>
-    <hyperlink ref="I104" r:id="rId152"/>
-    <hyperlink ref="I84" r:id="rId153"/>
-    <hyperlink ref="I62" r:id="rId154"/>
-    <hyperlink ref="I40" r:id="rId155"/>
-    <hyperlink ref="I24" r:id="rId156"/>
-    <hyperlink ref="J49" r:id="rId157"/>
-    <hyperlink ref="J58" r:id="rId158"/>
-    <hyperlink ref="J66" r:id="rId159"/>
-    <hyperlink ref="J114" r:id="rId160"/>
-    <hyperlink ref="J115" r:id="rId161"/>
-    <hyperlink ref="J14" r:id="rId162"/>
-    <hyperlink ref="J88" r:id="rId163"/>
-    <hyperlink ref="J87" r:id="rId164"/>
-    <hyperlink ref="J44" r:id="rId165"/>
-    <hyperlink ref="J119" r:id="rId166"/>
-    <hyperlink ref="J106" r:id="rId167"/>
-    <hyperlink ref="J136" r:id="rId168"/>
-    <hyperlink ref="J118" r:id="rId169"/>
-    <hyperlink ref="J147" r:id="rId170"/>
-    <hyperlink ref="J132" r:id="rId171"/>
-    <hyperlink ref="J33" r:id="rId172"/>
-    <hyperlink ref="J102" r:id="rId173"/>
-    <hyperlink ref="J41" r:id="rId174"/>
-    <hyperlink ref="J3" r:id="rId175"/>
-    <hyperlink ref="J156" r:id="rId176"/>
-    <hyperlink ref="J96" r:id="rId177"/>
-    <hyperlink ref="J92" r:id="rId178"/>
-    <hyperlink ref="J7" r:id="rId179"/>
-    <hyperlink ref="J67" r:id="rId180"/>
-    <hyperlink ref="J61" r:id="rId181"/>
-    <hyperlink ref="J97" r:id="rId182"/>
-    <hyperlink ref="J54" r:id="rId183"/>
-    <hyperlink ref="J148" r:id="rId184"/>
-    <hyperlink ref="J64" r:id="rId185"/>
-    <hyperlink ref="J77" r:id="rId186"/>
-    <hyperlink ref="J76" r:id="rId187"/>
-    <hyperlink ref="J43" r:id="rId188"/>
-    <hyperlink ref="J4" r:id="rId189"/>
-    <hyperlink ref="J85" r:id="rId190"/>
-    <hyperlink ref="J74" r:id="rId191"/>
-    <hyperlink ref="J27" r:id="rId192"/>
-    <hyperlink ref="J117" r:id="rId193"/>
-    <hyperlink ref="J57" r:id="rId194"/>
-    <hyperlink ref="J73" r:id="rId195"/>
-    <hyperlink ref="J55" r:id="rId196"/>
-    <hyperlink ref="J143" r:id="rId197"/>
-    <hyperlink ref="J91" r:id="rId198"/>
-    <hyperlink ref="J141" r:id="rId199"/>
-    <hyperlink ref="J94" r:id="rId200"/>
-    <hyperlink ref="J18" r:id="rId201"/>
-    <hyperlink ref="J152" r:id="rId202"/>
-    <hyperlink ref="J2" r:id="rId203"/>
-    <hyperlink ref="J121" r:id="rId204"/>
-    <hyperlink ref="J47" r:id="rId205"/>
-    <hyperlink ref="J6" r:id="rId206"/>
-    <hyperlink ref="J17" r:id="rId207"/>
-    <hyperlink ref="J139" r:id="rId208"/>
-    <hyperlink ref="J130" r:id="rId209"/>
-    <hyperlink ref="J149" r:id="rId210"/>
-    <hyperlink ref="J35" r:id="rId211"/>
-    <hyperlink ref="J26" r:id="rId212"/>
-    <hyperlink ref="J100" r:id="rId213"/>
-    <hyperlink ref="J80" r:id="rId214"/>
-    <hyperlink ref="J142" r:id="rId215"/>
-    <hyperlink ref="J53" r:id="rId216"/>
-    <hyperlink ref="J122" r:id="rId217"/>
-    <hyperlink ref="J60" r:id="rId218"/>
-    <hyperlink ref="J111" r:id="rId219"/>
-    <hyperlink ref="J113" r:id="rId220"/>
-    <hyperlink ref="J99" r:id="rId221"/>
-    <hyperlink ref="J138" r:id="rId222"/>
-    <hyperlink ref="J29" r:id="rId223"/>
-    <hyperlink ref="J83" r:id="rId224"/>
-    <hyperlink ref="J134" r:id="rId225"/>
-    <hyperlink ref="J129" r:id="rId226"/>
-    <hyperlink ref="J153" r:id="rId227"/>
-    <hyperlink ref="J146" r:id="rId228"/>
-    <hyperlink ref="J82" r:id="rId229"/>
-    <hyperlink ref="J25" r:id="rId230"/>
-    <hyperlink ref="J81" r:id="rId231"/>
-    <hyperlink ref="J101" r:id="rId232"/>
-    <hyperlink ref="J21" r:id="rId233"/>
-    <hyperlink ref="J68" r:id="rId234"/>
-    <hyperlink ref="J11" r:id="rId235"/>
-    <hyperlink ref="J93" r:id="rId236"/>
-    <hyperlink ref="J50" r:id="rId237"/>
-    <hyperlink ref="J48" r:id="rId238"/>
-    <hyperlink ref="J15" r:id="rId239"/>
-    <hyperlink ref="J10" r:id="rId240"/>
-    <hyperlink ref="J151" r:id="rId241"/>
-    <hyperlink ref="J110" r:id="rId242"/>
-    <hyperlink ref="J38" r:id="rId243"/>
-    <hyperlink ref="J45" r:id="rId244"/>
-    <hyperlink ref="J37" r:id="rId245"/>
-    <hyperlink ref="J123" r:id="rId246"/>
-    <hyperlink ref="J103" r:id="rId247"/>
-    <hyperlink ref="J63" r:id="rId248"/>
-    <hyperlink ref="J133" r:id="rId249"/>
-    <hyperlink ref="J157" r:id="rId250"/>
-    <hyperlink ref="J30" r:id="rId251"/>
-    <hyperlink ref="J128" r:id="rId252"/>
-    <hyperlink ref="J124" r:id="rId253"/>
-    <hyperlink ref="J144" r:id="rId254"/>
-    <hyperlink ref="J12" r:id="rId255"/>
-    <hyperlink ref="J116" r:id="rId256"/>
-    <hyperlink ref="J20" r:id="rId257"/>
-    <hyperlink ref="J9" r:id="rId258"/>
-    <hyperlink ref="J140" r:id="rId259"/>
-    <hyperlink ref="J145" r:id="rId260"/>
-    <hyperlink ref="J72" r:id="rId261"/>
-    <hyperlink ref="J19" r:id="rId262"/>
-    <hyperlink ref="J8" r:id="rId263"/>
-    <hyperlink ref="J46" r:id="rId264"/>
-    <hyperlink ref="J125" r:id="rId265"/>
-    <hyperlink ref="J5" r:id="rId266"/>
-    <hyperlink ref="J155" r:id="rId267"/>
-    <hyperlink ref="J86" r:id="rId268"/>
-    <hyperlink ref="J36" r:id="rId269"/>
-    <hyperlink ref="J154" r:id="rId270"/>
-    <hyperlink ref="J42" r:id="rId271"/>
-    <hyperlink ref="J28" r:id="rId272"/>
-    <hyperlink ref="J70" r:id="rId273"/>
-    <hyperlink ref="J56" r:id="rId274"/>
-    <hyperlink ref="J13" r:id="rId275"/>
-    <hyperlink ref="J131" r:id="rId276"/>
-    <hyperlink ref="J23" r:id="rId277"/>
-    <hyperlink ref="J108" r:id="rId278"/>
-    <hyperlink ref="J59" r:id="rId279"/>
-    <hyperlink ref="J89" r:id="rId280"/>
-    <hyperlink ref="J150" r:id="rId281"/>
-    <hyperlink ref="J22" r:id="rId282"/>
-    <hyperlink ref="J75" r:id="rId283"/>
-    <hyperlink ref="J137" r:id="rId284"/>
-    <hyperlink ref="J52" r:id="rId285"/>
-    <hyperlink ref="J135" r:id="rId286"/>
-    <hyperlink ref="J51" r:id="rId287"/>
-    <hyperlink ref="J34" r:id="rId288"/>
-    <hyperlink ref="J39" r:id="rId289"/>
-    <hyperlink ref="J98" r:id="rId290"/>
-    <hyperlink ref="J127" r:id="rId291"/>
-    <hyperlink ref="J16" r:id="rId292"/>
-    <hyperlink ref="J69" r:id="rId293"/>
-    <hyperlink ref="J90" r:id="rId294"/>
-    <hyperlink ref="J95" r:id="rId295"/>
-    <hyperlink ref="J109" r:id="rId296"/>
-    <hyperlink ref="J65" r:id="rId297"/>
-    <hyperlink ref="J79" r:id="rId298"/>
-    <hyperlink ref="J71" r:id="rId299"/>
-    <hyperlink ref="J120" r:id="rId300"/>
-    <hyperlink ref="J126" r:id="rId301"/>
-    <hyperlink ref="J78" r:id="rId302"/>
-    <hyperlink ref="J112" r:id="rId303"/>
-    <hyperlink ref="J107" r:id="rId304"/>
-    <hyperlink ref="J32" r:id="rId305"/>
-    <hyperlink ref="J105" r:id="rId306"/>
-    <hyperlink ref="J31" r:id="rId307"/>
-    <hyperlink ref="J104" r:id="rId308"/>
-    <hyperlink ref="J84" r:id="rId309"/>
-    <hyperlink ref="J62" r:id="rId310"/>
-    <hyperlink ref="J40" r:id="rId311"/>
-    <hyperlink ref="J24" r:id="rId312"/>
-    <hyperlink ref="U157" r:id="rId313"/>
-    <hyperlink ref="U154" r:id="rId314"/>
-    <hyperlink ref="B158" r:id="rId315"/>
-    <hyperlink ref="U158" r:id="rId316"/>
+    <hyperlink ref="I49" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I58" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I66" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I114" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I115" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I88" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I87" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I44" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I119" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I106" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I136" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I118" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I147" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I132" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I33" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I102" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I41" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I3" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I156" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I96" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I92" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I67" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I61" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I97" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I54" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I148" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I64" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I77" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I76" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I4" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I85" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I74" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I27" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I117" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I57" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I73" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I55" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I143" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I91" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I141" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I94" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I18" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I152" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I2" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I121" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I47" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I6" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="I17" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I139" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I130" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I149" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="I35" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I26" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I100" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I80" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I142" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I53" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I122" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I60" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I111" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I113" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="I99" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I138" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="I29" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I83" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="I134" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I129" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I153" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="I146" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="I82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="I25" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="I81" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I101" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="I21" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="I68" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="I11" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="I93" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="I50" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="I48" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="I15" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="I10" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="I151" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="I110" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="I38" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="I45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="I37" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="I123" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="I103" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="I63" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="I133" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="I157" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="I30" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="I128" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="I124" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="I144" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="I12" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="I116" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="I20" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="I9" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="I140" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="I145" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="I72" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="I19" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="I8" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="I46" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="I125" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="I5" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="I155" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="I86" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="I36" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="I154" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="I42" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="I28" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="I70" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="I56" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="I13" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="I131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="I23" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="I108" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="I59" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="I89" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="I150" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="I22" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="I75" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="I137" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="I52" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="I135" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="I51" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="I34" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="I39" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="I98" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="I127" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="I16" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="I69" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="I90" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="I95" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="I109" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="I65" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="I79" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="I71" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="I120" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="I126" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="I78" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="I112" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="I107" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="I32" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="I105" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="I31" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="I104" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="I84" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="I62" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="I40" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="I24" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="J49" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="J58" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="J66" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="J114" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="J115" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="J14" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="J88" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="J87" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="J44" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="J119" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="J106" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="J136" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="J118" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="J147" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="J132" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="J33" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="J102" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="J41" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="J3" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="J156" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="J96" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="J92" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="J7" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="J67" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="J61" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="J97" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="J54" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="J148" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="J64" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="J77" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="J76" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="J43" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="J4" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="J85" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="J74" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="J27" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="J117" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="J57" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="J73" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="J55" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="J143" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="J91" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="J141" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="J94" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="J18" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="J152" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="J2" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="J121" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="J47" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="J6" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="J17" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="J139" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="J130" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="J149" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="J35" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="J26" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="J100" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="J80" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="J142" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="J53" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="J122" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="J60" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="J111" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="J113" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="J99" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="J138" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="J29" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="J83" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="J134" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="J129" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="J153" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="J146" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="J82" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="J25" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="J81" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="J101" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="J21" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="J68" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="J11" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="J93" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="J50" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="J48" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="J15" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="J10" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="J151" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="J110" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="J38" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="J45" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="J37" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="J123" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="J103" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="J63" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="J133" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="J157" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="J30" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="J128" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="J124" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="J144" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="J12" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="J116" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="J20" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="J9" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="J140" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="J145" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="J72" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="J19" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="J8" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="J46" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="J125" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="J5" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="J155" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="J86" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="J36" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="J154" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="J42" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="J28" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="J70" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="J56" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="J13" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="J131" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="J23" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="J108" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="J59" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="J89" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="J150" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="J22" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="J75" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="J137" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="J52" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="J135" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="J51" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="J34" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="J39" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="J98" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="J127" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="J16" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="J69" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="J90" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="J95" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="J109" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="J65" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="J79" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="J71" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="J120" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="J126" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="J78" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="J112" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="J107" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="J32" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="J105" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="J31" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="J104" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="J84" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="J62" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="J40" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="J24" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="U157" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="U154" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B158" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="U158" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/server/scripts/phd.xlsx
+++ b/server/scripts/phd.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BITS EEE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanch\OneDrive\Desktop\Erp\server\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9BC965-ACB7-444C-99A4-04FC9F937BE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>BITS EEE</author>
   </authors>
   <commentList>
-    <comment ref="O39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="O39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="K90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1116,9 +1115,6 @@
     <t>p20250040@hyderabad.bits-pilani.ac.in</t>
   </si>
   <si>
-    <t>2024proj047@hyderabad.bits-pilani.ac.in</t>
-  </si>
-  <si>
     <t>p20240902@hyderabad.bits-pilani.ac.in</t>
   </si>
   <si>
@@ -2320,12 +2316,15 @@
   </si>
   <si>
     <t>f20220607@hyderabad.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>20240474@hyderabad.bits-pilani.ac.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -2406,33 +2405,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:U158" totalsRowShown="0">
-  <autoFilter ref="A1:U158" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U158" totalsRowShown="0">
+  <autoFilter ref="A1:U158"/>
   <sortState ref="A2:U159">
     <sortCondition ref="T1:T159"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="email"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="bits id"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="department(eee/mech)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="phd type(full time/ part time)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="phone number"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="erp id"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="personal email"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="notional supervisor email" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="supervisor email" dataDxfId="0" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="pas/fail the qe(true  or false)"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="qualification date if passed"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Proposal Seminar"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Date of Proposal"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Presubmission Seminar"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Draft Notice"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Date of Presubmission"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Final Thesis"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Viva Voce"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Supervisor Name"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="supervisor email2"/>
+    <tableColumn id="1" name="name"/>
+    <tableColumn id="2" name="email"/>
+    <tableColumn id="3" name="bits id"/>
+    <tableColumn id="4" name="department(eee/mech)"/>
+    <tableColumn id="5" name="phd type(full time/ part time)"/>
+    <tableColumn id="6" name="phone number"/>
+    <tableColumn id="7" name="erp id"/>
+    <tableColumn id="8" name="personal email"/>
+    <tableColumn id="9" name="notional supervisor email" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" name="supervisor email" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" name="pas/fail the qe(true  or false)"/>
+    <tableColumn id="12" name="qualification date if passed"/>
+    <tableColumn id="13" name="Proposal Seminar"/>
+    <tableColumn id="14" name="Date of Proposal"/>
+    <tableColumn id="15" name="Presubmission Seminar"/>
+    <tableColumn id="16" name="Draft Notice"/>
+    <tableColumn id="17" name="Date of Presubmission"/>
+    <tableColumn id="18" name="Final Thesis"/>
+    <tableColumn id="19" name="Viva Voce"/>
+    <tableColumn id="20" name="Supervisor Name"/>
+    <tableColumn id="21" name="supervisor email2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2696,35 +2695,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView tabSelected="1" topLeftCell="B77" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="12" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" customWidth="1"/>
+    <col min="15" max="15" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" customWidth="1"/>
-    <col min="21" max="21" width="17.140625" customWidth="1"/>
+    <col min="18" max="19" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1">
@@ -2765,31 +2764,31 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N1" t="s">
+        <v>715</v>
+      </c>
+      <c r="O1" t="s">
         <v>716</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>717</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>718</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>719</v>
       </c>
-      <c r="R1" t="s">
-        <v>720</v>
-      </c>
       <c r="S1" t="s">
+        <v>739</v>
+      </c>
+      <c r="T1" t="s">
+        <v>712</v>
+      </c>
+      <c r="U1" t="s">
         <v>740</v>
-      </c>
-      <c r="T1" t="s">
-        <v>713</v>
-      </c>
-      <c r="U1" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1">
@@ -2797,29 +2796,29 @@
         <v>214</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G2" s="1">
         <v>41320240441</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -2829,10 +2828,10 @@
       </c>
       <c r="M2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" customHeight="1">
@@ -2846,30 +2845,30 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G3" s="1">
         <v>41320250109</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="T3" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
@@ -2877,29 +2876,29 @@
         <v>200</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G4" s="1">
         <v>41320230030</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -2908,7 +2907,7 @@
         <v>45194</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N4" s="3">
         <v>45320</v>
@@ -2919,10 +2918,10 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.25" customHeight="1">
@@ -2930,29 +2929,29 @@
         <v>277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G5" s="1">
         <v>41320230442</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -2961,7 +2960,7 @@
         <v>45555</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N5" s="3">
         <v>45692</v>
@@ -2972,10 +2971,10 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.25" customHeight="1">
@@ -2983,29 +2982,29 @@
         <v>217</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
+        <v>479</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G6" s="1">
         <v>41320230521</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -3014,7 +3013,7 @@
         <v>45555</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N6" s="3">
         <v>45692</v>
@@ -3025,10 +3024,10 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="14.25" customHeight="1">
@@ -3036,29 +3035,29 @@
         <v>190</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G7" s="1">
         <v>41320240902</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -3074,10 +3073,10 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="14.25" customHeight="1">
@@ -3085,31 +3084,31 @@
         <v>274</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G8" s="1">
         <v>41320240033</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -3118,7 +3117,7 @@
         <v>45712</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N8" s="3">
         <v>45923</v>
@@ -3129,10 +3128,10 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="14.25" customHeight="1">
@@ -3140,29 +3139,29 @@
         <v>269</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G9" s="1">
         <v>41320240068</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -3171,7 +3170,7 @@
         <v>45712</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N9" s="3">
         <v>45854</v>
@@ -3182,10 +3181,10 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="14.25" customHeight="1">
@@ -3193,29 +3192,29 @@
         <v>251</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D10" t="s">
+        <v>479</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G10" s="1">
         <v>41320240119</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -3224,7 +3223,7 @@
         <v>45712</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N10" s="3">
         <v>45923</v>
@@ -3235,10 +3234,10 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1">
@@ -3246,39 +3245,39 @@
         <v>246</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G11" s="1">
         <v>41320240483</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="T11" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="14.25" customHeight="1">
@@ -3286,36 +3285,36 @@
         <v>266</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G12" s="1">
         <v>41320250039</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="T12" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1">
@@ -3323,36 +3322,36 @@
         <v>286</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G13" s="1">
         <v>41320250042</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="T13" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="14.25" customHeight="1">
@@ -3366,23 +3365,23 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
+        <v>479</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G14" s="1">
         <v>41320230522</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -3391,7 +3390,7 @@
         <v>45712</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N14" s="3">
         <v>45854</v>
@@ -3402,10 +3401,10 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="14.25" customHeight="1">
@@ -3413,37 +3412,37 @@
         <v>250</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D15" t="s">
+        <v>479</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G15" s="1">
         <v>41320240124</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="T15" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="14.25" customHeight="1">
@@ -3451,36 +3450,36 @@
         <v>303</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G16" s="1">
         <v>41320250041</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="T16" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="14.25" customHeight="1">
@@ -3488,29 +3487,29 @@
         <v>218</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G17" s="1">
         <v>41320230436</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -3519,7 +3518,7 @@
         <v>45555</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N17" s="3">
         <v>45692</v>
@@ -3530,10 +3529,10 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="14.25" customHeight="1">
@@ -3541,36 +3540,36 @@
         <v>212</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G18" s="1">
         <v>41320250090</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="T18" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="14.25" customHeight="1">
@@ -3578,37 +3577,37 @@
         <v>273</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D19" t="s">
+        <v>479</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G19" s="1">
         <v>41320240514</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="T19" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="14.25" customHeight="1">
@@ -3616,36 +3615,36 @@
         <v>268</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G20" s="1">
         <v>41320250037</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="T20" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="14.25" customHeight="1">
@@ -3653,36 +3652,36 @@
         <v>244</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D21" t="s">
+        <v>479</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G21" s="1">
         <v>41320250112</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="T21" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="14.25" customHeight="1">
@@ -3690,29 +3689,29 @@
         <v>293</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G22" s="1">
         <v>41320230034</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -3721,7 +3720,7 @@
         <v>45349</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N22" s="3">
         <v>45447</v>
@@ -3732,10 +3731,10 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="14.25" customHeight="1">
@@ -3743,36 +3742,36 @@
         <v>288</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G23" s="1">
         <v>41320250083</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="T23" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="14.25" customHeight="1">
@@ -3780,31 +3779,31 @@
         <v>323</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G24" s="1">
         <v>41320170438</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -3813,7 +3812,7 @@
         <v>43377</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N24" s="3">
         <v>43586</v>
@@ -3824,10 +3823,10 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="14.25" customHeight="1">
@@ -3835,29 +3834,29 @@
         <v>241</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D25" t="s">
+        <v>479</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G25" s="1">
         <v>41320180105</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -3866,7 +3865,7 @@
         <v>43522</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N25" s="3">
         <v>44628</v>
@@ -3877,10 +3876,10 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="14.25" customHeight="1">
@@ -3888,31 +3887,31 @@
         <v>223</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D26" t="s">
+        <v>479</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G26" s="1">
         <v>41320200107</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -3921,7 +3920,7 @@
         <v>44485</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N26" s="3">
         <v>44776</v>
@@ -3932,10 +3931,10 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="14.25" customHeight="1">
@@ -3943,29 +3942,29 @@
         <v>203</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D27" t="s">
+        <v>479</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G27" s="1">
         <v>41320200510</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -3974,7 +3973,7 @@
         <v>44485</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N27" s="3">
         <v>44776</v>
@@ -3985,10 +3984,10 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="14.25" customHeight="1">
@@ -3996,29 +3995,29 @@
         <v>283</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D28" t="s">
+        <v>479</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G28" s="1">
         <v>41320210111</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -4034,10 +4033,10 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="14.25" customHeight="1">
@@ -4045,29 +4044,29 @@
         <v>234</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G29" s="1">
         <v>41320230032</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -4076,7 +4075,7 @@
         <v>45349</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N29" s="3">
         <v>45447</v>
@@ -4087,10 +4086,10 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="14.25" customHeight="1">
@@ -4098,29 +4097,29 @@
         <v>262</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G30" s="1">
         <v>41320210445</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -4129,7 +4128,7 @@
         <v>44930</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N30" s="3">
         <v>45117</v>
@@ -4140,10 +4139,10 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1">
@@ -4151,29 +4150,29 @@
         <v>318</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G31" s="1">
         <v>41320220201</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -4182,7 +4181,7 @@
         <v>44662</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N31" s="3">
         <v>44932</v>
@@ -4193,10 +4192,10 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="14.25" customHeight="1">
@@ -4204,29 +4203,29 @@
         <v>316</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D32" t="s">
+        <v>479</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G32" s="1">
         <v>41320220511</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -4235,7 +4234,7 @@
         <v>45349</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N32" s="3">
         <v>45692</v>
@@ -4246,10 +4245,10 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="14.25" customHeight="1">
@@ -4263,23 +4262,23 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G33" s="1">
         <v>41320210030</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -4288,7 +4287,7 @@
         <v>44485</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N33" s="3">
         <v>44628</v>
@@ -4299,10 +4298,10 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="14.25" customHeight="1">
@@ -4310,29 +4309,29 @@
         <v>299</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D34" t="s">
+        <v>479</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G34" s="1">
         <v>41320210112</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -4341,7 +4340,7 @@
         <v>44662</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N34" s="3">
         <v>44932</v>
@@ -4352,10 +4351,10 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="14.25" customHeight="1">
@@ -4363,29 +4362,29 @@
         <v>222</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G35" s="1">
         <v>41320220420</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -4394,7 +4393,7 @@
         <v>45194</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N35" s="3">
         <v>45320</v>
@@ -4405,10 +4404,10 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="14.25" customHeight="1">
@@ -4416,29 +4415,29 @@
         <v>280</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D36" t="s">
+        <v>479</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G36" s="1">
         <v>41320220510</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -4447,7 +4446,7 @@
         <v>45194</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N36" s="3">
         <v>45320</v>
@@ -4458,10 +4457,10 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1">
@@ -4469,29 +4468,29 @@
         <v>256</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G37" s="1">
         <v>41320230035</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -4500,7 +4499,7 @@
         <v>45349</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N37" s="3">
         <v>45692</v>
@@ -4511,10 +4510,10 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1">
@@ -4522,31 +4521,31 @@
         <v>254</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G38" s="1">
         <v>41320230092</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -4555,7 +4554,7 @@
         <v>45349</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N38" s="3">
         <v>45447</v>
@@ -4566,10 +4565,10 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="14.25" customHeight="1">
@@ -4577,29 +4576,29 @@
         <v>300</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G39" s="1">
         <v>41320180023</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -4608,7 +4607,7 @@
         <v>43451</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N39" s="3">
         <v>43810</v>
@@ -4619,10 +4618,10 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="14.25" customHeight="1">
@@ -4630,31 +4629,31 @@
         <v>322</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D40" t="s">
+        <v>479</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G40" s="1">
         <v>41320180508</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -4663,7 +4662,7 @@
         <v>43880</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N40" s="3">
         <v>44382</v>
@@ -4674,10 +4673,10 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1">
@@ -4691,23 +4690,23 @@
         <v>29</v>
       </c>
       <c r="D41" t="s">
+        <v>479</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G41" s="1">
         <v>41320200508</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
@@ -4716,7 +4715,7 @@
         <v>44662</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N41" s="3">
         <v>44932</v>
@@ -4727,10 +4726,10 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="14.25" customHeight="1">
@@ -4738,29 +4737,29 @@
         <v>282</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D42" t="s">
+        <v>479</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G42" s="1">
         <v>41320210516</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
@@ -4776,10 +4775,10 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="14.25" customHeight="1">
@@ -4787,29 +4786,29 @@
         <v>199</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G43" s="1">
         <v>41320230031</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -4818,7 +4817,7 @@
         <v>45349</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N43" s="3">
         <v>45692</v>
@@ -4829,10 +4828,10 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="14.25" customHeight="1">
@@ -4846,23 +4845,23 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
+        <v>479</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G44" s="1">
         <v>41320230121</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -4871,7 +4870,7 @@
         <v>45349</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N44" s="3">
         <v>45692</v>
@@ -4882,10 +4881,10 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="14.25" customHeight="1">
@@ -4893,29 +4892,29 @@
         <v>255</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G45" s="1">
         <v>41320230438</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -4931,10 +4930,10 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="14.25" customHeight="1">
@@ -4942,29 +4941,29 @@
         <v>275</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D46" t="s">
+        <v>479</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G46" s="1">
         <v>41320230525</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -4980,10 +4979,10 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="14.25" customHeight="1">
@@ -4991,29 +4990,29 @@
         <v>216</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D47" t="s">
+        <v>479</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G47" s="1">
         <v>41320240123</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -5023,10 +5022,10 @@
       </c>
       <c r="M47" s="1"/>
       <c r="T47" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="14.25" customHeight="1">
@@ -5034,29 +5033,29 @@
         <v>249</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D48" t="s">
+        <v>479</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G48" s="1">
         <v>41320240125</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
@@ -5066,10 +5065,10 @@
       </c>
       <c r="M48" s="1"/>
       <c r="T48" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="14.25" customHeight="1">
@@ -5083,30 +5082,30 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
+        <v>479</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G49" s="1">
         <v>41320250110</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="T49" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="14.25" customHeight="1">
@@ -5114,37 +5113,37 @@
         <v>248</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D50" t="s">
+        <v>479</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G50" s="1">
         <v>41320240513</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="T50" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="14.25" customHeight="1">
@@ -5152,29 +5151,29 @@
         <v>298</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G51" s="1">
         <v>41320210418</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
@@ -5183,7 +5182,7 @@
         <v>44852</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N51" s="3">
         <v>44932</v>
@@ -5194,10 +5193,10 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="14.25" customHeight="1">
@@ -5205,29 +5204,29 @@
         <v>296</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D52" t="s">
+        <v>479</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G52" s="1">
         <v>41320210513</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
@@ -5236,7 +5235,7 @@
         <v>44979</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N52" s="3">
         <v>45117</v>
@@ -5247,10 +5246,10 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="14.25" customHeight="1">
@@ -5258,29 +5257,29 @@
         <v>227</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G53" s="1">
         <v>41320240805</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
@@ -5289,7 +5288,7 @@
         <v>45665</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N53" s="3">
         <v>45854</v>
@@ -5300,10 +5299,10 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="14.25" customHeight="1">
@@ -5311,29 +5310,29 @@
         <v>194</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D54" t="s">
+        <v>479</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G54" s="1">
         <v>41320240118</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
@@ -5349,10 +5348,10 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="14.25" customHeight="1">
@@ -5360,36 +5359,36 @@
         <v>207</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D55" t="s">
+        <v>479</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G55" s="1">
         <v>41320250113</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="T55" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="14.25" customHeight="1">
@@ -5397,31 +5396,31 @@
         <v>285</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D56" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G56" s="1">
         <v>41320170017</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
@@ -5430,7 +5429,7 @@
         <v>43151</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N56" s="3">
         <v>43471</v>
@@ -5445,10 +5444,10 @@
         <v>45903</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="U56" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="14.25" customHeight="1">
@@ -5456,29 +5455,29 @@
         <v>205</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G57" s="1">
         <v>41320190030</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
@@ -5487,7 +5486,7 @@
         <v>43880</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N57" s="3">
         <v>44202</v>
@@ -5498,10 +5497,10 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="U57" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="14.25" customHeight="1">
@@ -5515,22 +5514,22 @@
         <v>13</v>
       </c>
       <c r="D58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G58" s="1">
         <v>41320240520</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
@@ -5540,10 +5539,10 @@
       </c>
       <c r="M58" s="1"/>
       <c r="T58" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="U58" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="14.25" customHeight="1">
@@ -5551,29 +5550,29 @@
         <v>290</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D59" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G59" s="1">
         <v>41320230523</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
@@ -5582,7 +5581,7 @@
         <v>45712</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N59" s="3">
         <v>45923</v>
@@ -5593,10 +5592,10 @@
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
       <c r="T59" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="14.25" customHeight="1">
@@ -5604,29 +5603,29 @@
         <v>229</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D60" t="s">
+        <v>479</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G60" s="1">
         <v>41320240120</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
@@ -5635,7 +5634,7 @@
         <v>45712</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N60" s="3">
         <v>45923</v>
@@ -5646,10 +5645,10 @@
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="14.25" customHeight="1">
@@ -5657,29 +5656,29 @@
         <v>192</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D61" t="s">
+        <v>479</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G61" s="1">
         <v>41320240517</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K61" t="b">
         <v>1</v>
@@ -5689,10 +5688,10 @@
       </c>
       <c r="M61" s="1"/>
       <c r="T61" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="14.25" customHeight="1">
@@ -5700,29 +5699,29 @@
         <v>321</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D62" t="s">
+        <v>479</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G62" s="1">
         <v>41320210109</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
@@ -5731,7 +5730,7 @@
         <v>44852</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N62" s="3">
         <v>44932</v>
@@ -5742,10 +5741,10 @@
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="14.25" customHeight="1">
@@ -5753,29 +5752,29 @@
         <v>259</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D63" t="s">
+        <v>479</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G63" s="1">
         <v>41320210515</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K63" t="b">
         <v>1</v>
@@ -5784,7 +5783,7 @@
         <v>44852</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N63" s="3">
         <v>44932</v>
@@ -5795,10 +5794,10 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="14.25" customHeight="1">
@@ -5806,29 +5805,29 @@
         <v>196</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G64" s="1">
         <v>41320230444</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
@@ -5837,7 +5836,7 @@
         <v>45712</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N64" s="3">
         <v>45854</v>
@@ -5848,10 +5847,10 @@
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
       <c r="T64" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="14.25" customHeight="1">
@@ -5859,39 +5858,39 @@
         <v>308</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G65" s="1">
         <v>41320240081</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="T65" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="14.25" customHeight="1">
@@ -5905,31 +5904,31 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
+        <v>479</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G66" s="1">
         <v>41320240516</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="T66" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="14.25" customHeight="1">
@@ -5937,36 +5936,36 @@
         <v>191</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D67" t="s">
+        <v>479</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G67" s="1">
         <v>41320240519</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="T67" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="14.25" customHeight="1">
@@ -5974,36 +5973,36 @@
         <v>245</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D68" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G68" s="1">
         <v>41320250036</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="T68" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="14.25" customHeight="1">
@@ -6011,36 +6010,36 @@
         <v>304</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G69" s="1">
         <v>41320250093</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="T69" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="14.25" customHeight="1">
@@ -6048,29 +6047,29 @@
         <v>284</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D70" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G70" s="1">
         <v>41320210034</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K70" t="b">
         <v>1</v>
@@ -6079,7 +6078,7 @@
         <v>44662</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N70" s="3">
         <v>44932</v>
@@ -6094,10 +6093,10 @@
         <v>45910</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="14.25" customHeight="1">
@@ -6105,31 +6104,31 @@
         <v>310</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D71" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G71" s="1">
         <v>41320230480</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K71" t="b">
         <v>1</v>
@@ -6138,7 +6137,7 @@
         <v>45712</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N71" s="3">
         <v>45854</v>
@@ -6149,10 +6148,10 @@
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
       <c r="T71" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="14.25" customHeight="1">
@@ -6160,36 +6159,36 @@
         <v>272</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D72" t="s">
+        <v>479</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G72" s="1">
         <v>41320240521</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="T72" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="14.25" customHeight="1">
@@ -6197,29 +6196,29 @@
         <v>206</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D73" t="s">
+        <v>479</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G73" s="1">
         <v>41320180024</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K73" t="b">
         <v>1</v>
@@ -6228,7 +6227,7 @@
         <v>43451</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N73" s="3">
         <v>43810</v>
@@ -6239,10 +6238,10 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="14.25" customHeight="1">
@@ -6250,31 +6249,31 @@
         <v>202</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G74" s="1">
         <v>41320210033</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K74" t="b">
         <v>1</v>
@@ -6283,7 +6282,7 @@
         <v>44662</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N74" s="3">
         <v>45117</v>
@@ -6294,10 +6293,10 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="14.25" customHeight="1">
@@ -6305,29 +6304,29 @@
         <v>294</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G75" s="1">
         <v>41320230029</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K75" t="b">
         <v>1</v>
@@ -6336,7 +6335,7 @@
         <v>45194</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N75" s="3">
         <v>45320</v>
@@ -6347,10 +6346,10 @@
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
       <c r="T75" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="14.25" customHeight="1">
@@ -6358,29 +6357,29 @@
         <v>198</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G76" s="1">
         <v>41320230038</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K76" t="b">
         <v>1</v>
@@ -6389,7 +6388,7 @@
         <v>45349</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N76" s="3">
         <v>45447</v>
@@ -6400,10 +6399,10 @@
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
       <c r="T76" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="14.25" customHeight="1">
@@ -6411,29 +6410,29 @@
         <v>197</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D77" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G77" s="1">
         <v>41320230087</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K77" t="b">
         <v>1</v>
@@ -6442,7 +6441,7 @@
         <v>45349</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N77" s="3">
         <v>45447</v>
@@ -6453,10 +6452,10 @@
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
       <c r="T77" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="14.25" customHeight="1">
@@ -6464,29 +6463,29 @@
         <v>313</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D78" t="s">
+        <v>479</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F78" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G78" s="1">
         <v>41320230518</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K78" t="b">
         <v>1</v>
@@ -6495,7 +6494,7 @@
         <v>45555</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N78" s="3">
         <v>45692</v>
@@ -6506,10 +6505,10 @@
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
       <c r="T78" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="14.25" customHeight="1">
@@ -6517,29 +6516,29 @@
         <v>309</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D79" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G79" s="1">
         <v>41320240034</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K79" t="b">
         <v>1</v>
@@ -6548,7 +6547,7 @@
         <v>45712</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N79" s="3">
         <v>45923</v>
@@ -6559,10 +6558,10 @@
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
       <c r="T79" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="14.25" customHeight="1">
@@ -6570,29 +6569,29 @@
         <v>225</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D80" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G80" s="1">
         <v>41320240060</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K80" t="b">
         <v>1</v>
@@ -6601,7 +6600,7 @@
         <v>45814</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N80" s="3">
         <v>45923</v>
@@ -6612,10 +6611,10 @@
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
       <c r="T80" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="14.25" customHeight="1">
@@ -6623,36 +6622,36 @@
         <v>242</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D81" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G81" s="1">
         <v>41320250801</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="T81" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="14.25" customHeight="1">
@@ -6660,29 +6659,29 @@
         <v>240</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D82" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G82" s="1">
         <v>41320210032</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K82" t="b">
         <v>1</v>
@@ -6691,7 +6690,7 @@
         <v>44635</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N82" s="3">
         <v>44776</v>
@@ -6702,10 +6701,10 @@
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="14.25" customHeight="1">
@@ -6713,29 +6712,29 @@
         <v>235</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D83" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G83" s="1">
         <v>41320220021</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K83" t="b">
         <v>1</v>
@@ -6744,7 +6743,7 @@
         <v>44979</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N83" s="3">
         <v>45117</v>
@@ -6755,10 +6754,10 @@
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
       <c r="T83" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="14.25" customHeight="1">
@@ -6766,29 +6765,29 @@
         <v>320</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D84" t="s">
+        <v>479</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F84" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G84" s="1">
         <v>41320220107</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K84" t="b">
         <v>1</v>
@@ -6804,10 +6803,10 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="14.25" customHeight="1">
@@ -6815,29 +6814,29 @@
         <v>201</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D85" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G85" s="1">
         <v>41320220421</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K85" t="b">
         <v>1</v>
@@ -6846,7 +6845,7 @@
         <v>45349</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N85" s="3">
         <v>45447</v>
@@ -6857,10 +6856,10 @@
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
       <c r="T85" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="14.25" customHeight="1">
@@ -6868,29 +6867,29 @@
         <v>279</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D86" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G86" s="1">
         <v>41320230033</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
@@ -6899,7 +6898,7 @@
         <v>45349</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N86" s="3">
         <v>45692</v>
@@ -6910,10 +6909,10 @@
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
       <c r="T86" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="14.25" customHeight="1">
@@ -6927,23 +6926,23 @@
         <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G87" s="1">
         <v>41320230439</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K87" t="b">
         <v>1</v>
@@ -6959,10 +6958,10 @@
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="14.25" customHeight="1">
@@ -6976,23 +6975,23 @@
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G88" s="1">
         <v>41320230440</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K88" t="b">
         <v>1</v>
@@ -7001,7 +7000,7 @@
         <v>45555</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N88" s="3">
         <v>45854</v>
@@ -7012,10 +7011,10 @@
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
       <c r="T88" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="14.25" customHeight="1">
@@ -7023,29 +7022,29 @@
         <v>291</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D89" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G89" s="1">
         <v>41320230448</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K89" t="b">
         <v>1</v>
@@ -7061,10 +7060,10 @@
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="14.25" customHeight="1">
@@ -7072,31 +7071,31 @@
         <v>305</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D90" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G90" s="1">
         <v>41320242002</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -7107,10 +7106,10 @@
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="14.25" customHeight="1">
@@ -7118,29 +7117,29 @@
         <v>209</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D91" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G91" s="1">
         <v>41320240067</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K91" t="b">
         <v>1</v>
@@ -7150,40 +7149,40 @@
       </c>
       <c r="M91" s="1"/>
       <c r="T91" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="14.25" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>345</v>
+      <c r="B92" s="4" t="s">
+        <v>746</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D92" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G92" s="1">
         <v>41320240474</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K92" t="b">
         <v>1</v>
@@ -7193,10 +7192,10 @@
       </c>
       <c r="M92" s="1"/>
       <c r="T92" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="14.25" customHeight="1">
@@ -7204,39 +7203,39 @@
         <v>247</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D93" t="s">
+        <v>479</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F93" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G93" s="1">
         <v>41320240518</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="T93" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="14.25" customHeight="1">
@@ -7244,36 +7243,36 @@
         <v>211</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D94" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G94" s="1">
         <v>41320252002</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="T94" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U94" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="14.25" customHeight="1">
@@ -7281,36 +7280,36 @@
         <v>306</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D95" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G95" s="1">
         <v>41320252006</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="T95" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="14.25" customHeight="1">
@@ -7324,30 +7323,30 @@
         <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G96" s="1">
         <v>41320250040</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="T96" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="14.25" customHeight="1">
@@ -7355,36 +7354,36 @@
         <v>193</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D97" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G97" s="1">
         <v>41320250092</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="T97" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="14.25" customHeight="1">
@@ -7392,31 +7391,31 @@
         <v>301</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D98" t="s">
+        <v>479</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F98" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G98" s="1">
         <v>41320170505</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K98" t="b">
         <v>1</v>
@@ -7425,7 +7424,7 @@
         <v>43377</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N98" s="3">
         <v>43810</v>
@@ -7436,10 +7435,10 @@
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="14.25" customHeight="1">
@@ -7447,29 +7446,29 @@
         <v>232</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D99" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G99" s="1">
         <v>41320230441</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K99" t="b">
         <v>1</v>
@@ -7478,7 +7477,7 @@
         <v>45555</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N99" s="3">
         <v>45692</v>
@@ -7489,10 +7488,10 @@
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
       <c r="T99" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="14.25" customHeight="1">
@@ -7500,36 +7499,36 @@
         <v>224</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D100" t="s">
+        <v>479</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F100" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G100" s="1">
         <v>41320250111</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="T100" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="15" customHeight="1">
@@ -7537,36 +7536,36 @@
         <v>243</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D101" t="s">
+        <v>479</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F101" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G101" s="1">
         <v>41320250114</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="T101" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="15" customHeight="1">
@@ -7580,23 +7579,23 @@
         <v>28</v>
       </c>
       <c r="D102" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G102" s="1">
         <v>41320210027</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K102" t="b">
         <v>1</v>
@@ -7605,7 +7604,7 @@
         <v>44662</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N102" s="3">
         <v>44932</v>
@@ -7616,10 +7615,10 @@
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="15" customHeight="1">
@@ -7627,29 +7626,29 @@
         <v>258</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D103" t="s">
+        <v>479</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F103" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G103" s="1">
         <v>41320220108</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K103" t="b">
         <v>1</v>
@@ -7658,7 +7657,7 @@
         <v>44979</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N103" s="3">
         <v>45854</v>
@@ -7669,10 +7668,10 @@
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
       <c r="T103" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="15" customHeight="1">
@@ -7680,29 +7679,29 @@
         <v>319</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D104" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G104" s="1">
         <v>41320220200</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K104" t="b">
         <v>1</v>
@@ -7711,7 +7710,7 @@
         <v>44662</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N104" s="3">
         <v>44932</v>
@@ -7722,10 +7721,10 @@
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
       <c r="T104" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="15" customHeight="1">
@@ -7733,29 +7732,29 @@
         <v>317</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D105" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G105" s="1">
         <v>41320220415</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K105" t="b">
         <v>1</v>
@@ -7764,7 +7763,7 @@
         <v>45194</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N105" s="3">
         <v>45320</v>
@@ -7775,10 +7774,10 @@
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
       <c r="T105" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U105" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="15" customHeight="1">
@@ -7792,23 +7791,23 @@
         <v>22</v>
       </c>
       <c r="D106" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G106" s="1">
         <v>41320220419</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K106" t="b">
         <v>1</v>
@@ -7817,7 +7816,7 @@
         <v>45194</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N106" s="3">
         <v>45320</v>
@@ -7828,10 +7827,10 @@
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
       <c r="T106" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U106" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="15" customHeight="1">
@@ -7839,29 +7838,29 @@
         <v>315</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D107" t="s">
+        <v>479</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F107" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G107" s="1">
         <v>41320230122</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K107" t="b">
         <v>1</v>
@@ -7870,7 +7869,7 @@
         <v>45712</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N107" s="3">
         <v>45854</v>
@@ -7881,10 +7880,10 @@
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
       <c r="T107" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="15" customHeight="1">
@@ -7892,29 +7891,29 @@
         <v>289</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D108" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G108" s="1">
         <v>41320240035</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K108" t="b">
         <v>1</v>
@@ -7923,7 +7922,7 @@
         <v>45712</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N108" s="3">
         <v>45854</v>
@@ -7934,10 +7933,10 @@
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
       <c r="T108" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U108" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="15" customHeight="1">
@@ -7945,36 +7944,36 @@
         <v>307</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D109" t="s">
+        <v>479</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F109" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G109" s="1">
         <v>41320240522</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="T109" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="15" customHeight="1">
@@ -7982,29 +7981,29 @@
         <v>253</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D110" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G110" s="1">
         <v>41320240030</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K110" t="b">
         <v>1</v>
@@ -8020,10 +8019,10 @@
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="15" customHeight="1">
@@ -8031,29 +8030,29 @@
         <v>230</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D111" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G111" s="1">
         <v>41320230912</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K111" t="b">
         <v>1</v>
@@ -8062,7 +8061,7 @@
         <v>45455</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N111" s="3">
         <v>45569</v>
@@ -8073,10 +8072,10 @@
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
       <c r="T111" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U111" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="15" customHeight="1">
@@ -8084,31 +8083,31 @@
         <v>314</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D112" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G112" s="1">
         <v>41320230091</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K112" t="b">
         <v>1</v>
@@ -8117,7 +8116,7 @@
         <v>45349</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N112" s="3">
         <v>45854</v>
@@ -8128,10 +8127,10 @@
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
       <c r="T112" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="15" customHeight="1">
@@ -8139,29 +8138,29 @@
         <v>231</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D113" t="s">
+        <v>479</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F113" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G113" s="1">
         <v>41320230520</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K113" t="b">
         <v>1</v>
@@ -8177,10 +8176,10 @@
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1">
@@ -8194,23 +8193,23 @@
         <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G114" s="1">
         <v>41320240802</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K114" t="b">
         <v>1</v>
@@ -8219,7 +8218,7 @@
         <v>45665</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N114" s="3">
         <v>45854</v>
@@ -8230,10 +8229,10 @@
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
       <c r="T114" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U114" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="15" customHeight="1">
@@ -8247,23 +8246,23 @@
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G115" s="1">
         <v>41320240032</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K115" t="b">
         <v>1</v>
@@ -8272,7 +8271,7 @@
         <v>45712</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N115" s="3">
         <v>45854</v>
@@ -8283,10 +8282,10 @@
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
       <c r="T115" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="15" customHeight="1">
@@ -8294,36 +8293,36 @@
         <v>267</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D116" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G116" s="1">
         <v>41320250038</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="T116" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U116" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="117" spans="1:21" ht="15" customHeight="1">
@@ -8331,31 +8330,31 @@
         <v>204</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D117" t="s">
+        <v>479</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F117" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G117" s="1">
         <v>41320190431</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K117" t="b">
         <v>1</v>
@@ -8364,7 +8363,7 @@
         <v>44240</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N117" s="3">
         <v>44382</v>
@@ -8375,10 +8374,10 @@
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="118" spans="1:21" ht="15" customHeight="1">
@@ -8392,23 +8391,23 @@
         <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G118" s="1">
         <v>41320210442</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K118" t="b">
         <v>1</v>
@@ -8417,7 +8416,7 @@
         <v>44930</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N118" s="3">
         <v>45447</v>
@@ -8428,10 +8427,10 @@
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
       <c r="T118" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U118" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="119" spans="1:21" ht="15" customHeight="1">
@@ -8445,23 +8444,23 @@
         <v>21</v>
       </c>
       <c r="D119" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G119" s="1">
         <v>41320230037</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K119" t="b">
         <v>1</v>
@@ -8470,7 +8469,7 @@
         <v>45194</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N119" s="3">
         <v>45320</v>
@@ -8481,10 +8480,10 @@
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
       <c r="T119" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U119" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="120" spans="1:21" ht="15" customHeight="1">
@@ -8492,29 +8491,29 @@
         <v>311</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D120" t="s">
+        <v>479</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F120" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G120" s="1">
         <v>41320230524</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K120" t="b">
         <v>1</v>
@@ -8523,7 +8522,7 @@
         <v>45555</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N120" s="3">
         <v>45692</v>
@@ -8534,10 +8533,10 @@
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
       <c r="T120" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U120" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="121" spans="1:21" ht="15" customHeight="1">
@@ -8545,29 +8544,29 @@
         <v>215</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D121" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G121" s="1">
         <v>41320240808</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K121" t="b">
         <v>1</v>
@@ -8576,7 +8575,7 @@
         <v>45665</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N121" s="3">
         <v>45854</v>
@@ -8587,10 +8586,10 @@
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
       <c r="T121" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="15" customHeight="1">
@@ -8598,29 +8597,29 @@
         <v>228</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D122" t="s">
+        <v>479</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F122" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G122" s="1">
         <v>41320240121</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K122" t="b">
         <v>1</v>
@@ -8629,7 +8628,7 @@
         <v>45712</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N122" s="3">
         <v>45854</v>
@@ -8640,10 +8639,10 @@
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
       <c r="T122" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U122" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="15" customHeight="1">
@@ -8651,29 +8650,29 @@
         <v>257</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D123" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G123" s="1">
         <v>41320220417</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K123" t="b">
         <v>1</v>
@@ -8682,7 +8681,7 @@
         <v>45349</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N123" s="3">
         <v>45692</v>
@@ -8693,10 +8692,10 @@
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
       <c r="T123" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="U123" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="15" customHeight="1">
@@ -8704,31 +8703,31 @@
         <v>264</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D124" t="s">
+        <v>479</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F124" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G124" s="1">
         <v>41320190506</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K124" t="b">
         <v>1</v>
@@ -8737,7 +8736,7 @@
         <v>44485</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N124" s="3">
         <v>44776</v>
@@ -8748,10 +8747,10 @@
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U124" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="125" spans="1:21" ht="15" customHeight="1">
@@ -8759,29 +8758,29 @@
         <v>276</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D125" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G125" s="1">
         <v>41320230445</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K125" t="b">
         <v>1</v>
@@ -8797,10 +8796,10 @@
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
       <c r="T125" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U125" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="15" customHeight="1">
@@ -8808,29 +8807,29 @@
         <v>312</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D126" t="s">
+        <v>479</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F126" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G126" s="1">
         <v>41320230519</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K126" t="b">
         <v>1</v>
@@ -8846,10 +8845,10 @@
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
       <c r="T126" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U126" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="15" customHeight="1">
@@ -8857,36 +8856,36 @@
         <v>302</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D127" t="s">
+        <v>479</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F127" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G127" s="1">
         <v>41320250115</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="T127" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="128" spans="1:21" ht="15" customHeight="1">
@@ -8894,29 +8893,29 @@
         <v>263</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D128" t="s">
+        <v>479</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F128" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G128" s="1">
         <v>41320200507</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K128" t="b">
         <v>1</v>
@@ -8925,7 +8924,7 @@
         <v>44662</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N128" s="3">
         <v>44932</v>
@@ -8936,10 +8935,10 @@
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
       <c r="T128" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="15" customHeight="1">
@@ -8947,29 +8946,29 @@
         <v>237</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D129" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G129" s="1">
         <v>41320210700</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K129" t="b">
         <v>1</v>
@@ -8978,7 +8977,7 @@
         <v>44485</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N129" s="3">
         <v>44776</v>
@@ -8989,10 +8988,10 @@
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
       <c r="T129" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="130" spans="1:21" ht="15" customHeight="1">
@@ -9000,29 +8999,29 @@
         <v>220</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D130" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G130" s="1">
         <v>41320230036</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K130" t="b">
         <v>1</v>
@@ -9031,7 +9030,7 @@
         <v>45349</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N130" s="3">
         <v>45447</v>
@@ -9042,10 +9041,10 @@
       <c r="R130" s="3"/>
       <c r="S130" s="3"/>
       <c r="T130" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="15" customHeight="1">
@@ -9053,29 +9052,29 @@
         <v>287</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D131" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G131" s="1">
         <v>41320240069</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K131" t="b">
         <v>1</v>
@@ -9084,7 +9083,7 @@
         <v>45712</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N131" s="3">
         <v>45923</v>
@@ -9095,10 +9094,10 @@
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
       <c r="T131" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="132" spans="1:21" ht="15" customHeight="1">
@@ -9112,23 +9111,23 @@
         <v>26</v>
       </c>
       <c r="D132" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G132" s="1">
         <v>41320210031</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K132" t="b">
         <v>1</v>
@@ -9137,7 +9136,7 @@
         <v>44635</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N132" s="3">
         <v>44776</v>
@@ -9148,10 +9147,10 @@
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="133" spans="1:21" ht="15" customHeight="1">
@@ -9159,29 +9158,29 @@
         <v>260</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D133" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G133" s="1">
         <v>41320210417</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K133" t="b">
         <v>1</v>
@@ -9190,7 +9189,7 @@
         <v>44662</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N133" s="3">
         <v>44932</v>
@@ -9201,10 +9200,10 @@
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
       <c r="T133" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="15" customHeight="1">
@@ -9212,29 +9211,29 @@
         <v>236</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D134" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G134" s="1">
         <v>41320210448</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K134" t="b">
         <v>1</v>
@@ -9243,7 +9242,7 @@
         <v>44662</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N134" s="3">
         <v>44932</v>
@@ -9254,10 +9253,10 @@
       <c r="R134" s="3"/>
       <c r="S134" s="3"/>
       <c r="T134" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="15" customHeight="1">
@@ -9265,29 +9264,29 @@
         <v>297</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D135" t="s">
+        <v>479</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F135" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G135" s="1">
         <v>41320210511</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K135" t="b">
         <v>1</v>
@@ -9296,7 +9295,7 @@
         <v>44662</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N135" s="3">
         <v>44932</v>
@@ -9307,10 +9306,10 @@
       <c r="R135" s="3"/>
       <c r="S135" s="3"/>
       <c r="T135" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="15" customHeight="1">
@@ -9324,23 +9323,23 @@
         <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G136" s="1">
         <v>41320220023</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K136" t="b">
         <v>1</v>
@@ -9349,7 +9348,7 @@
         <v>44852</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N136" s="3">
         <v>44932</v>
@@ -9360,10 +9359,10 @@
       <c r="R136" s="3"/>
       <c r="S136" s="3"/>
       <c r="T136" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U136" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="137" spans="1:21" ht="15" customHeight="1">
@@ -9371,29 +9370,29 @@
         <v>295</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D137" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G137" s="1">
         <v>41320230028</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K137" t="b">
         <v>1</v>
@@ -9402,7 +9401,7 @@
         <v>45194</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N137" s="3">
         <v>45320</v>
@@ -9413,10 +9412,10 @@
       <c r="R137" s="3"/>
       <c r="S137" s="3"/>
       <c r="T137" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U137" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="15" customHeight="1">
@@ -9424,31 +9423,31 @@
         <v>233</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D138" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G138" s="1">
         <v>41320230481</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K138" t="b">
         <v>1</v>
@@ -9457,7 +9456,7 @@
         <v>45712</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N138" s="3">
         <v>45854</v>
@@ -9468,10 +9467,10 @@
       <c r="R138" s="3"/>
       <c r="S138" s="3"/>
       <c r="T138" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U138" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="15" customHeight="1">
@@ -9479,29 +9478,29 @@
         <v>219</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D139" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G139" s="1">
         <v>41320230492</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K139" t="b">
         <v>1</v>
@@ -9510,7 +9509,7 @@
         <v>45712</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N139" s="3">
         <v>45854</v>
@@ -9521,10 +9520,10 @@
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
       <c r="T139" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U139" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="15" customHeight="1">
@@ -9532,29 +9531,29 @@
         <v>270</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D140" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G140" s="1">
         <v>41320240061</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K140" t="b">
         <v>1</v>
@@ -9563,7 +9562,7 @@
         <v>45712</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N140" s="3">
         <v>45854</v>
@@ -9574,10 +9573,10 @@
       <c r="R140" s="3"/>
       <c r="S140" s="3"/>
       <c r="T140" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="15" customHeight="1">
@@ -9585,29 +9584,29 @@
         <v>210</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D141" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G141" s="1">
         <v>41320240075</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K141" t="b">
         <v>1</v>
@@ -9616,7 +9615,7 @@
         <v>45712</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N141" s="3">
         <v>45854</v>
@@ -9627,10 +9626,10 @@
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
       <c r="T141" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="142" spans="1:21" ht="15" customHeight="1">
@@ -9638,36 +9637,36 @@
         <v>226</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D142" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G142" s="1">
         <v>41320252004</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="T142" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U142" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="143" spans="1:21" ht="15" customHeight="1">
@@ -9675,36 +9674,36 @@
         <v>208</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D143" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G143" s="1">
         <v>41320250043</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="T143" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="144" spans="1:21" ht="15" customHeight="1">
@@ -9712,36 +9711,36 @@
         <v>265</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D144" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G144" s="1">
         <v>41320250044</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="T144" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U144" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="145" spans="1:21" ht="15" customHeight="1">
@@ -9749,36 +9748,36 @@
         <v>271</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D145" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G145" s="1">
         <v>41320250081</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="T145" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U145" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="146" spans="1:21" ht="15" customHeight="1">
@@ -9786,29 +9785,29 @@
         <v>239</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D146" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G146" s="1">
         <v>41320210036</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K146" t="b">
         <v>1</v>
@@ -9817,7 +9816,7 @@
         <v>44852</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N146" s="3">
         <v>45117</v>
@@ -9828,10 +9827,10 @@
       <c r="R146" s="3"/>
       <c r="S146" s="3"/>
       <c r="T146" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="U146" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="147" spans="1:21" ht="15" customHeight="1">
@@ -9845,23 +9844,23 @@
         <v>25</v>
       </c>
       <c r="D147" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G147" s="1">
         <v>41320210037</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K147" t="b">
         <v>1</v>
@@ -9870,7 +9869,7 @@
         <v>44852</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N147" s="3">
         <v>45447</v>
@@ -9881,10 +9880,10 @@
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
       <c r="T147" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="U147" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="148" spans="1:21" ht="15" customHeight="1">
@@ -9892,29 +9891,29 @@
         <v>195</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D148" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G148" s="1">
         <v>41320230911</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K148" t="b">
         <v>1</v>
@@ -9923,7 +9922,7 @@
         <v>45665</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N148" s="3">
         <v>45854</v>
@@ -9934,10 +9933,10 @@
       <c r="R148" s="3"/>
       <c r="S148" s="3"/>
       <c r="T148" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="15" customHeight="1">
@@ -9945,29 +9944,29 @@
         <v>221</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D149" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G149" s="1">
         <v>41320230027</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K149" t="b">
         <v>1</v>
@@ -9976,7 +9975,7 @@
         <v>45555</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N149" s="3">
         <v>45692</v>
@@ -9987,10 +9986,10 @@
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
       <c r="T149" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="U149" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="150" spans="1:21" ht="15" customHeight="1">
@@ -9998,29 +9997,29 @@
         <v>292</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D150" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G150" s="1">
         <v>41320230447</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K150" t="b">
         <v>1</v>
@@ -10029,7 +10028,7 @@
         <v>45665</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N150" s="3">
         <v>45854</v>
@@ -10040,10 +10039,10 @@
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
       <c r="T150" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="151" spans="1:21" ht="15" customHeight="1">
@@ -10051,29 +10050,29 @@
         <v>252</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D151" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G151" s="1">
         <v>41320240031</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K151" t="b">
         <v>1</v>
@@ -10083,10 +10082,10 @@
       </c>
       <c r="M151" s="1"/>
       <c r="T151" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="152" spans="1:21" ht="15" customHeight="1">
@@ -10094,37 +10093,37 @@
         <v>213</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D152" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G152" s="1">
         <v>41320240443</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="T152" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U152" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="153" spans="1:21" ht="15" customHeight="1">
@@ -10132,31 +10131,31 @@
         <v>238</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D153" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G153" s="1">
         <v>41320210514</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K153" t="b">
         <v>1</v>
@@ -10165,7 +10164,7 @@
         <v>44852</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N153" s="3">
         <v>44932</v>
@@ -10176,10 +10175,10 @@
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
       <c r="T153" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="U153" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="154" spans="1:21" ht="15" customHeight="1">
@@ -10187,29 +10186,29 @@
         <v>281</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D154" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G154" s="1">
         <v>41320220020</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K154" t="b">
         <v>1</v>
@@ -10218,7 +10217,7 @@
         <v>44979</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N154" s="3">
         <v>45117</v>
@@ -10229,10 +10228,10 @@
       <c r="R154" s="3"/>
       <c r="S154" s="3"/>
       <c r="T154" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="U154" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="155" spans="1:21" ht="15" customHeight="1">
@@ -10240,31 +10239,31 @@
         <v>278</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G155" s="1">
         <v>41320230488</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K155" t="b">
         <v>1</v>
@@ -10273,7 +10272,7 @@
         <v>45712</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N155" s="3">
         <v>45854</v>
@@ -10284,10 +10283,10 @@
       <c r="R155" s="3"/>
       <c r="S155" s="3"/>
       <c r="T155" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="U155" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="156" spans="1:21" ht="15" customHeight="1">
@@ -10301,30 +10300,30 @@
         <v>31</v>
       </c>
       <c r="D156" t="s">
+        <v>479</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F156" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G156" s="1">
         <v>41320250108</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="T156" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="U156" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="157" spans="1:21" ht="15" customHeight="1">
@@ -10332,29 +10331,29 @@
         <v>261</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D157" t="s">
+        <v>479</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F157" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G157" s="1">
         <v>41320210415</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K157" t="b">
         <v>1</v>
@@ -10363,7 +10362,7 @@
         <v>44852</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N157" s="3">
         <v>44932</v>
@@ -10374,24 +10373,24 @@
       <c r="R157" s="3"/>
       <c r="S157" s="3"/>
       <c r="T157" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="U157" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="158" spans="1:21" ht="15" customHeight="1">
       <c r="A158" t="s">
+        <v>742</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>744</v>
-      </c>
       <c r="D158" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E158" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F158">
         <v>7990573763</v>
@@ -10405,10 +10404,10 @@
         <v>44852</v>
       </c>
       <c r="T158" t="s">
+        <v>744</v>
+      </c>
+      <c r="U158" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="U158" s="2" t="s">
-        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -10416,328 +10415,329 @@
     <sortCondition ref="C2:C157"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I49" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I58" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I66" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I114" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I115" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I88" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I87" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I44" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I119" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I106" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I136" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I118" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I147" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I132" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I33" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I102" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I41" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I3" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I156" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I96" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I92" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I67" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="I61" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I97" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I54" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I148" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I64" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I77" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I76" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I4" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I85" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I74" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I27" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I117" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I57" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I73" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I55" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I143" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I91" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I141" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I94" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I18" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I152" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="I2" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I121" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I47" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I6" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="I17" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I139" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I130" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I149" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="I35" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I26" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="I100" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I80" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="I142" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I53" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="I122" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I60" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="I111" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I113" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="I99" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I138" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="I29" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I83" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="I134" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I129" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="I153" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="I146" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="I82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="I25" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="I81" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="I101" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="I21" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="I68" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="I11" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="I93" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="I50" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="I48" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="I15" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="I10" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="I151" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="I110" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="I38" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="I45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="I37" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="I123" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="I103" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="I63" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="I133" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="I157" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="I30" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="I128" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="I124" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="I144" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="I12" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="I116" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="I20" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="I9" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="I140" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="I145" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="I72" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="I19" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="I8" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="I46" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="I125" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="I5" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="I155" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="I86" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="I36" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="I154" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="I42" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="I28" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="I70" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="I56" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="I13" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="I131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="I23" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="I108" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="I59" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="I89" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="I150" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="I22" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="I75" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="I137" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="I52" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="I135" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="I51" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="I34" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="I39" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="I98" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="I127" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="I16" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="I69" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="I90" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="I95" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="I109" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="I65" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="I79" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="I71" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="I120" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="I126" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="I78" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="I112" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="I107" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="I32" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="I105" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="I31" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="I104" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="I84" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="I62" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="I40" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="I24" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="J49" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="J58" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="J66" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="J114" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="J115" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="J14" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="J88" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="J87" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="J44" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="J119" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="J106" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="J136" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="J118" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="J147" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="J132" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="J33" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="J102" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="J41" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="J3" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="J156" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="J96" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="J92" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="J7" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="J67" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="J61" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="J97" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="J54" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="J148" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="J64" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="J77" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="J76" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="J43" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="J4" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="J85" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="J74" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="J27" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="J117" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="J57" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="J73" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="J55" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="J143" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="J91" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="J141" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="J94" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="J18" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="J152" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="J2" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="J121" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="J47" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="J6" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="J17" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="J139" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="J130" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="J149" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="J35" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="J26" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="J100" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="J80" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="J142" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="J53" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="J122" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="J60" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="J111" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="J113" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="J99" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="J138" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="J29" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="J83" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="J134" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="J129" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="J153" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="J146" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="J82" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="J25" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="J81" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="J101" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="J21" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="J68" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="J11" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="J93" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="J50" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="J48" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="J15" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="J10" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="J151" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="J110" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="J38" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="J45" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="J37" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="J123" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="J103" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="J63" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="J133" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="J157" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="J30" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="J128" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="J124" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="J144" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="J12" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="J116" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="J20" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="J9" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="J140" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="J145" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="J72" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="J19" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="J8" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="J46" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="J125" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="J5" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="J155" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="J86" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="J36" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="J154" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="J42" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="J28" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="J70" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="J56" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="J13" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="J131" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="J23" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="J108" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="J59" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="J89" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="J150" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="J22" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="J75" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="J137" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="J52" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="J135" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="J51" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="J34" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="J39" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="J98" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="J127" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="J16" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="J69" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="J90" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="J95" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="J109" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="J65" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="J79" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="J71" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="J120" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="J126" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="J78" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="J112" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="J107" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="J32" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="J105" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="J31" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="J104" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="J84" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="J62" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="J40" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="J24" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="U157" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="U154" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B158" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="U158" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="I49" r:id="rId1"/>
+    <hyperlink ref="I58" r:id="rId2"/>
+    <hyperlink ref="I66" r:id="rId3"/>
+    <hyperlink ref="I114" r:id="rId4"/>
+    <hyperlink ref="I115" r:id="rId5"/>
+    <hyperlink ref="I14" r:id="rId6"/>
+    <hyperlink ref="I88" r:id="rId7"/>
+    <hyperlink ref="I87" r:id="rId8"/>
+    <hyperlink ref="I44" r:id="rId9"/>
+    <hyperlink ref="I119" r:id="rId10"/>
+    <hyperlink ref="I106" r:id="rId11"/>
+    <hyperlink ref="I136" r:id="rId12"/>
+    <hyperlink ref="I118" r:id="rId13"/>
+    <hyperlink ref="I147" r:id="rId14"/>
+    <hyperlink ref="I132" r:id="rId15"/>
+    <hyperlink ref="I33" r:id="rId16"/>
+    <hyperlink ref="I102" r:id="rId17"/>
+    <hyperlink ref="I41" r:id="rId18"/>
+    <hyperlink ref="I3" r:id="rId19"/>
+    <hyperlink ref="I156" r:id="rId20"/>
+    <hyperlink ref="I96" r:id="rId21"/>
+    <hyperlink ref="I92" r:id="rId22"/>
+    <hyperlink ref="I7" r:id="rId23"/>
+    <hyperlink ref="I67" r:id="rId24"/>
+    <hyperlink ref="I61" r:id="rId25"/>
+    <hyperlink ref="I97" r:id="rId26"/>
+    <hyperlink ref="I54" r:id="rId27"/>
+    <hyperlink ref="I148" r:id="rId28"/>
+    <hyperlink ref="I64" r:id="rId29"/>
+    <hyperlink ref="I77" r:id="rId30"/>
+    <hyperlink ref="I76" r:id="rId31"/>
+    <hyperlink ref="I43" r:id="rId32"/>
+    <hyperlink ref="I4" r:id="rId33"/>
+    <hyperlink ref="I85" r:id="rId34"/>
+    <hyperlink ref="I74" r:id="rId35"/>
+    <hyperlink ref="I27" r:id="rId36"/>
+    <hyperlink ref="I117" r:id="rId37"/>
+    <hyperlink ref="I57" r:id="rId38"/>
+    <hyperlink ref="I73" r:id="rId39"/>
+    <hyperlink ref="I55" r:id="rId40"/>
+    <hyperlink ref="I143" r:id="rId41"/>
+    <hyperlink ref="I91" r:id="rId42"/>
+    <hyperlink ref="I141" r:id="rId43"/>
+    <hyperlink ref="I94" r:id="rId44"/>
+    <hyperlink ref="I18" r:id="rId45"/>
+    <hyperlink ref="I152" r:id="rId46"/>
+    <hyperlink ref="I2" r:id="rId47"/>
+    <hyperlink ref="I121" r:id="rId48"/>
+    <hyperlink ref="I47" r:id="rId49"/>
+    <hyperlink ref="I6" r:id="rId50"/>
+    <hyperlink ref="I17" r:id="rId51"/>
+    <hyperlink ref="I139" r:id="rId52"/>
+    <hyperlink ref="I130" r:id="rId53"/>
+    <hyperlink ref="I149" r:id="rId54"/>
+    <hyperlink ref="I35" r:id="rId55"/>
+    <hyperlink ref="I26" r:id="rId56"/>
+    <hyperlink ref="I100" r:id="rId57"/>
+    <hyperlink ref="I80" r:id="rId58"/>
+    <hyperlink ref="I142" r:id="rId59"/>
+    <hyperlink ref="I53" r:id="rId60"/>
+    <hyperlink ref="I122" r:id="rId61"/>
+    <hyperlink ref="I60" r:id="rId62"/>
+    <hyperlink ref="I111" r:id="rId63"/>
+    <hyperlink ref="I113" r:id="rId64"/>
+    <hyperlink ref="I99" r:id="rId65"/>
+    <hyperlink ref="I138" r:id="rId66"/>
+    <hyperlink ref="I29" r:id="rId67"/>
+    <hyperlink ref="I83" r:id="rId68"/>
+    <hyperlink ref="I134" r:id="rId69"/>
+    <hyperlink ref="I129" r:id="rId70"/>
+    <hyperlink ref="I153" r:id="rId71"/>
+    <hyperlink ref="I146" r:id="rId72"/>
+    <hyperlink ref="I82" r:id="rId73"/>
+    <hyperlink ref="I25" r:id="rId74"/>
+    <hyperlink ref="I81" r:id="rId75"/>
+    <hyperlink ref="I101" r:id="rId76"/>
+    <hyperlink ref="I21" r:id="rId77"/>
+    <hyperlink ref="I68" r:id="rId78"/>
+    <hyperlink ref="I11" r:id="rId79"/>
+    <hyperlink ref="I93" r:id="rId80"/>
+    <hyperlink ref="I50" r:id="rId81"/>
+    <hyperlink ref="I48" r:id="rId82"/>
+    <hyperlink ref="I15" r:id="rId83"/>
+    <hyperlink ref="I10" r:id="rId84"/>
+    <hyperlink ref="I151" r:id="rId85"/>
+    <hyperlink ref="I110" r:id="rId86"/>
+    <hyperlink ref="I38" r:id="rId87"/>
+    <hyperlink ref="I45" r:id="rId88"/>
+    <hyperlink ref="I37" r:id="rId89"/>
+    <hyperlink ref="I123" r:id="rId90"/>
+    <hyperlink ref="I103" r:id="rId91"/>
+    <hyperlink ref="I63" r:id="rId92"/>
+    <hyperlink ref="I133" r:id="rId93"/>
+    <hyperlink ref="I157" r:id="rId94"/>
+    <hyperlink ref="I30" r:id="rId95"/>
+    <hyperlink ref="I128" r:id="rId96"/>
+    <hyperlink ref="I124" r:id="rId97"/>
+    <hyperlink ref="I144" r:id="rId98"/>
+    <hyperlink ref="I12" r:id="rId99"/>
+    <hyperlink ref="I116" r:id="rId100"/>
+    <hyperlink ref="I20" r:id="rId101"/>
+    <hyperlink ref="I9" r:id="rId102"/>
+    <hyperlink ref="I140" r:id="rId103"/>
+    <hyperlink ref="I145" r:id="rId104"/>
+    <hyperlink ref="I72" r:id="rId105"/>
+    <hyperlink ref="I19" r:id="rId106"/>
+    <hyperlink ref="I8" r:id="rId107"/>
+    <hyperlink ref="I46" r:id="rId108"/>
+    <hyperlink ref="I125" r:id="rId109"/>
+    <hyperlink ref="I5" r:id="rId110"/>
+    <hyperlink ref="I155" r:id="rId111"/>
+    <hyperlink ref="I86" r:id="rId112"/>
+    <hyperlink ref="I36" r:id="rId113"/>
+    <hyperlink ref="I154" r:id="rId114"/>
+    <hyperlink ref="I42" r:id="rId115"/>
+    <hyperlink ref="I28" r:id="rId116"/>
+    <hyperlink ref="I70" r:id="rId117"/>
+    <hyperlink ref="I56" r:id="rId118"/>
+    <hyperlink ref="I13" r:id="rId119"/>
+    <hyperlink ref="I131" r:id="rId120"/>
+    <hyperlink ref="I23" r:id="rId121"/>
+    <hyperlink ref="I108" r:id="rId122"/>
+    <hyperlink ref="I59" r:id="rId123"/>
+    <hyperlink ref="I89" r:id="rId124"/>
+    <hyperlink ref="I150" r:id="rId125"/>
+    <hyperlink ref="I22" r:id="rId126"/>
+    <hyperlink ref="I75" r:id="rId127"/>
+    <hyperlink ref="I137" r:id="rId128"/>
+    <hyperlink ref="I52" r:id="rId129"/>
+    <hyperlink ref="I135" r:id="rId130"/>
+    <hyperlink ref="I51" r:id="rId131"/>
+    <hyperlink ref="I34" r:id="rId132"/>
+    <hyperlink ref="I39" r:id="rId133"/>
+    <hyperlink ref="I98" r:id="rId134"/>
+    <hyperlink ref="I127" r:id="rId135"/>
+    <hyperlink ref="I16" r:id="rId136"/>
+    <hyperlink ref="I69" r:id="rId137"/>
+    <hyperlink ref="I90" r:id="rId138"/>
+    <hyperlink ref="I95" r:id="rId139"/>
+    <hyperlink ref="I109" r:id="rId140"/>
+    <hyperlink ref="I65" r:id="rId141"/>
+    <hyperlink ref="I79" r:id="rId142"/>
+    <hyperlink ref="I71" r:id="rId143"/>
+    <hyperlink ref="I120" r:id="rId144"/>
+    <hyperlink ref="I126" r:id="rId145"/>
+    <hyperlink ref="I78" r:id="rId146"/>
+    <hyperlink ref="I112" r:id="rId147"/>
+    <hyperlink ref="I107" r:id="rId148"/>
+    <hyperlink ref="I32" r:id="rId149"/>
+    <hyperlink ref="I105" r:id="rId150"/>
+    <hyperlink ref="I31" r:id="rId151"/>
+    <hyperlink ref="I104" r:id="rId152"/>
+    <hyperlink ref="I84" r:id="rId153"/>
+    <hyperlink ref="I62" r:id="rId154"/>
+    <hyperlink ref="I40" r:id="rId155"/>
+    <hyperlink ref="I24" r:id="rId156"/>
+    <hyperlink ref="J49" r:id="rId157"/>
+    <hyperlink ref="J58" r:id="rId158"/>
+    <hyperlink ref="J66" r:id="rId159"/>
+    <hyperlink ref="J114" r:id="rId160"/>
+    <hyperlink ref="J115" r:id="rId161"/>
+    <hyperlink ref="J14" r:id="rId162"/>
+    <hyperlink ref="J88" r:id="rId163"/>
+    <hyperlink ref="J87" r:id="rId164"/>
+    <hyperlink ref="J44" r:id="rId165"/>
+    <hyperlink ref="J119" r:id="rId166"/>
+    <hyperlink ref="J106" r:id="rId167"/>
+    <hyperlink ref="J136" r:id="rId168"/>
+    <hyperlink ref="J118" r:id="rId169"/>
+    <hyperlink ref="J147" r:id="rId170"/>
+    <hyperlink ref="J132" r:id="rId171"/>
+    <hyperlink ref="J33" r:id="rId172"/>
+    <hyperlink ref="J102" r:id="rId173"/>
+    <hyperlink ref="J41" r:id="rId174"/>
+    <hyperlink ref="J3" r:id="rId175"/>
+    <hyperlink ref="J156" r:id="rId176"/>
+    <hyperlink ref="J96" r:id="rId177"/>
+    <hyperlink ref="J92" r:id="rId178"/>
+    <hyperlink ref="J7" r:id="rId179"/>
+    <hyperlink ref="J67" r:id="rId180"/>
+    <hyperlink ref="J61" r:id="rId181"/>
+    <hyperlink ref="J97" r:id="rId182"/>
+    <hyperlink ref="J54" r:id="rId183"/>
+    <hyperlink ref="J148" r:id="rId184"/>
+    <hyperlink ref="J64" r:id="rId185"/>
+    <hyperlink ref="J77" r:id="rId186"/>
+    <hyperlink ref="J76" r:id="rId187"/>
+    <hyperlink ref="J43" r:id="rId188"/>
+    <hyperlink ref="J4" r:id="rId189"/>
+    <hyperlink ref="J85" r:id="rId190"/>
+    <hyperlink ref="J74" r:id="rId191"/>
+    <hyperlink ref="J27" r:id="rId192"/>
+    <hyperlink ref="J117" r:id="rId193"/>
+    <hyperlink ref="J57" r:id="rId194"/>
+    <hyperlink ref="J73" r:id="rId195"/>
+    <hyperlink ref="J55" r:id="rId196"/>
+    <hyperlink ref="J143" r:id="rId197"/>
+    <hyperlink ref="J91" r:id="rId198"/>
+    <hyperlink ref="J141" r:id="rId199"/>
+    <hyperlink ref="J94" r:id="rId200"/>
+    <hyperlink ref="J18" r:id="rId201"/>
+    <hyperlink ref="J152" r:id="rId202"/>
+    <hyperlink ref="J2" r:id="rId203"/>
+    <hyperlink ref="J121" r:id="rId204"/>
+    <hyperlink ref="J47" r:id="rId205"/>
+    <hyperlink ref="J6" r:id="rId206"/>
+    <hyperlink ref="J17" r:id="rId207"/>
+    <hyperlink ref="J139" r:id="rId208"/>
+    <hyperlink ref="J130" r:id="rId209"/>
+    <hyperlink ref="J149" r:id="rId210"/>
+    <hyperlink ref="J35" r:id="rId211"/>
+    <hyperlink ref="J26" r:id="rId212"/>
+    <hyperlink ref="J100" r:id="rId213"/>
+    <hyperlink ref="J80" r:id="rId214"/>
+    <hyperlink ref="J142" r:id="rId215"/>
+    <hyperlink ref="J53" r:id="rId216"/>
+    <hyperlink ref="J122" r:id="rId217"/>
+    <hyperlink ref="J60" r:id="rId218"/>
+    <hyperlink ref="J111" r:id="rId219"/>
+    <hyperlink ref="J113" r:id="rId220"/>
+    <hyperlink ref="J99" r:id="rId221"/>
+    <hyperlink ref="J138" r:id="rId222"/>
+    <hyperlink ref="J29" r:id="rId223"/>
+    <hyperlink ref="J83" r:id="rId224"/>
+    <hyperlink ref="J134" r:id="rId225"/>
+    <hyperlink ref="J129" r:id="rId226"/>
+    <hyperlink ref="J153" r:id="rId227"/>
+    <hyperlink ref="J146" r:id="rId228"/>
+    <hyperlink ref="J82" r:id="rId229"/>
+    <hyperlink ref="J25" r:id="rId230"/>
+    <hyperlink ref="J81" r:id="rId231"/>
+    <hyperlink ref="J101" r:id="rId232"/>
+    <hyperlink ref="J21" r:id="rId233"/>
+    <hyperlink ref="J68" r:id="rId234"/>
+    <hyperlink ref="J11" r:id="rId235"/>
+    <hyperlink ref="J93" r:id="rId236"/>
+    <hyperlink ref="J50" r:id="rId237"/>
+    <hyperlink ref="J48" r:id="rId238"/>
+    <hyperlink ref="J15" r:id="rId239"/>
+    <hyperlink ref="J10" r:id="rId240"/>
+    <hyperlink ref="J151" r:id="rId241"/>
+    <hyperlink ref="J110" r:id="rId242"/>
+    <hyperlink ref="J38" r:id="rId243"/>
+    <hyperlink ref="J45" r:id="rId244"/>
+    <hyperlink ref="J37" r:id="rId245"/>
+    <hyperlink ref="J123" r:id="rId246"/>
+    <hyperlink ref="J103" r:id="rId247"/>
+    <hyperlink ref="J63" r:id="rId248"/>
+    <hyperlink ref="J133" r:id="rId249"/>
+    <hyperlink ref="J157" r:id="rId250"/>
+    <hyperlink ref="J30" r:id="rId251"/>
+    <hyperlink ref="J128" r:id="rId252"/>
+    <hyperlink ref="J124" r:id="rId253"/>
+    <hyperlink ref="J144" r:id="rId254"/>
+    <hyperlink ref="J12" r:id="rId255"/>
+    <hyperlink ref="J116" r:id="rId256"/>
+    <hyperlink ref="J20" r:id="rId257"/>
+    <hyperlink ref="J9" r:id="rId258"/>
+    <hyperlink ref="J140" r:id="rId259"/>
+    <hyperlink ref="J145" r:id="rId260"/>
+    <hyperlink ref="J72" r:id="rId261"/>
+    <hyperlink ref="J19" r:id="rId262"/>
+    <hyperlink ref="J8" r:id="rId263"/>
+    <hyperlink ref="J46" r:id="rId264"/>
+    <hyperlink ref="J125" r:id="rId265"/>
+    <hyperlink ref="J5" r:id="rId266"/>
+    <hyperlink ref="J155" r:id="rId267"/>
+    <hyperlink ref="J86" r:id="rId268"/>
+    <hyperlink ref="J36" r:id="rId269"/>
+    <hyperlink ref="J154" r:id="rId270"/>
+    <hyperlink ref="J42" r:id="rId271"/>
+    <hyperlink ref="J28" r:id="rId272"/>
+    <hyperlink ref="J70" r:id="rId273"/>
+    <hyperlink ref="J56" r:id="rId274"/>
+    <hyperlink ref="J13" r:id="rId275"/>
+    <hyperlink ref="J131" r:id="rId276"/>
+    <hyperlink ref="J23" r:id="rId277"/>
+    <hyperlink ref="J108" r:id="rId278"/>
+    <hyperlink ref="J59" r:id="rId279"/>
+    <hyperlink ref="J89" r:id="rId280"/>
+    <hyperlink ref="J150" r:id="rId281"/>
+    <hyperlink ref="J22" r:id="rId282"/>
+    <hyperlink ref="J75" r:id="rId283"/>
+    <hyperlink ref="J137" r:id="rId284"/>
+    <hyperlink ref="J52" r:id="rId285"/>
+    <hyperlink ref="J135" r:id="rId286"/>
+    <hyperlink ref="J51" r:id="rId287"/>
+    <hyperlink ref="J34" r:id="rId288"/>
+    <hyperlink ref="J39" r:id="rId289"/>
+    <hyperlink ref="J98" r:id="rId290"/>
+    <hyperlink ref="J127" r:id="rId291"/>
+    <hyperlink ref="J16" r:id="rId292"/>
+    <hyperlink ref="J69" r:id="rId293"/>
+    <hyperlink ref="J90" r:id="rId294"/>
+    <hyperlink ref="J95" r:id="rId295"/>
+    <hyperlink ref="J109" r:id="rId296"/>
+    <hyperlink ref="J65" r:id="rId297"/>
+    <hyperlink ref="J79" r:id="rId298"/>
+    <hyperlink ref="J71" r:id="rId299"/>
+    <hyperlink ref="J120" r:id="rId300"/>
+    <hyperlink ref="J126" r:id="rId301"/>
+    <hyperlink ref="J78" r:id="rId302"/>
+    <hyperlink ref="J112" r:id="rId303"/>
+    <hyperlink ref="J107" r:id="rId304"/>
+    <hyperlink ref="J32" r:id="rId305"/>
+    <hyperlink ref="J105" r:id="rId306"/>
+    <hyperlink ref="J31" r:id="rId307"/>
+    <hyperlink ref="J104" r:id="rId308"/>
+    <hyperlink ref="J84" r:id="rId309"/>
+    <hyperlink ref="J62" r:id="rId310"/>
+    <hyperlink ref="J40" r:id="rId311"/>
+    <hyperlink ref="J24" r:id="rId312"/>
+    <hyperlink ref="U157" r:id="rId313"/>
+    <hyperlink ref="U154" r:id="rId314"/>
+    <hyperlink ref="B158" r:id="rId315"/>
+    <hyperlink ref="U158" r:id="rId316"/>
+    <hyperlink ref="B92" r:id="rId317"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId317"/>
+  <legacyDrawing r:id="rId318"/>
   <tableParts count="1">
-    <tablePart r:id="rId318"/>
+    <tablePart r:id="rId319"/>
   </tableParts>
 </worksheet>
 </file>
--- a/server/scripts/phd.xlsx
+++ b/server/scripts/phd.xlsx
@@ -2318,7 +2318,7 @@
     <t>f20220607@hyderabad.bits-pilani.ac.in</t>
   </si>
   <si>
-    <t>20240474@hyderabad.bits-pilani.ac.in</t>
+    <t>p20240474@hyderabad.bits-pilani.ac.in</t>
   </si>
 </sst>
 </file>
